--- a/Greyform/Python_Application/exporteddatassss(with TMP)(draft1)(tetra).xlsx
+++ b/Greyform/Python_Application/exporteddatassss(with TMP)(draft1)(tetra).xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="425" uniqueCount="110">
   <si>
     <t>Marking type</t>
   </si>
@@ -63,219 +63,219 @@
     <t>Tile</t>
   </si>
   <si>
+    <t>TMP1S2a2:TMP1S2a2:1155194</t>
+  </si>
+  <si>
+    <t>TMP1S2b4:TMP1S2b4:1155197</t>
+  </si>
+  <si>
+    <t>TMP1S2b3:TMP1S2b3:1155198</t>
+  </si>
+  <si>
+    <t>TMP1S2b2:TMP1S2b2:1155199</t>
+  </si>
+  <si>
+    <t>TMP1S2b1:TMP1S2b1:1155200</t>
+  </si>
+  <si>
+    <t>TMP1S2c4:TMP1S2c4:1155202</t>
+  </si>
+  <si>
+    <t>TMP1S2c3:TMP1S2c3:1155203</t>
+  </si>
+  <si>
+    <t>TMP1S2c2:TMP1S2c2:1155204</t>
+  </si>
+  <si>
+    <t>TMP1S2c1:TMP1S2c1:1155205</t>
+  </si>
+  <si>
+    <t>TMP1S2d4:TMP1S2d4:1155207</t>
+  </si>
+  <si>
+    <t>TMP1S2d3:TMP1S2d3:1155208</t>
+  </si>
+  <si>
     <t>TMP1S2d2:TMP1S2d2:1155209</t>
   </si>
   <si>
-    <t>TMP1S2b1:TMP1S2b1:1155200</t>
-  </si>
-  <si>
-    <t>TMP1S2b2:TMP1S2b2:1155199</t>
-  </si>
-  <si>
-    <t>TMP1S2b3:TMP1S2b3:1155198</t>
-  </si>
-  <si>
-    <t>TMP1S2b4:TMP1S2b4:1155197</t>
+    <t>TMP1S2d1:TMP1S2d1:1155210</t>
+  </si>
+  <si>
+    <t>TMP1S2e4:TMP1S2e4:1155212</t>
+  </si>
+  <si>
+    <t>TMP1S2e3:TMP1S2e3:1155213</t>
+  </si>
+  <si>
+    <t>TMP1S2e2:TMP1S2e2:1155214</t>
   </si>
   <si>
     <t>TMP1S2a1:TMP1S2a1:1155195</t>
   </si>
   <si>
-    <t>TMP1S2a2:TMP1S2a2:1155194</t>
+    <t>TMP1S2e1:TMP1S2e1:1155215</t>
+  </si>
+  <si>
+    <t>TMP1S2f4:TMP1S2f4:1155217</t>
+  </si>
+  <si>
+    <t>TMP1S2a4:TMP1S2a4:1155192</t>
+  </si>
+  <si>
+    <t>TMP1S2f3:TMP1S2f3:1155218</t>
+  </si>
+  <si>
+    <t>TMP1S2f2:TMP1S2f2:1155219</t>
+  </si>
+  <si>
+    <t>TMP1S2f1:TMP1S2f1:1155220</t>
   </si>
   <si>
     <t>TMP1S2a3:TMP1S2a3:1155193</t>
   </si>
   <si>
-    <t>TMP1S2a4:TMP1S2a4:1155192</t>
-  </si>
-  <si>
-    <t>TMP1S2c2:TMP1S2c2:1155204</t>
-  </si>
-  <si>
-    <t>TMP1S2c1:TMP1S2c1:1155205</t>
-  </si>
-  <si>
-    <t>TMP1S2d4:TMP1S2d4:1155207</t>
-  </si>
-  <si>
-    <t>TMP1S2d3:TMP1S2d3:1155208</t>
-  </si>
-  <si>
-    <t>TMP1S2c4:TMP1S2c4:1155202</t>
-  </si>
-  <si>
-    <t>TMP1S2c3:TMP1S2c3:1155203</t>
-  </si>
-  <si>
-    <t>TMP1S2e4:TMP1S2e4:1155212</t>
-  </si>
-  <si>
-    <t>TMP1S2e3:TMP1S2e3:1155213</t>
-  </si>
-  <si>
-    <t>TMP1S2e2:TMP1S2e2:1155214</t>
-  </si>
-  <si>
-    <t>TMP1S2e1:TMP1S2e1:1155215</t>
-  </si>
-  <si>
-    <t>TMP1S2f4:TMP1S2f4:1155217</t>
-  </si>
-  <si>
-    <t>TMP1S2f3:TMP1S2f3:1155218</t>
-  </si>
-  <si>
-    <t>TMP1S2f2:TMP1S2f2:1155219</t>
-  </si>
-  <si>
-    <t>TMP1S2f1:TMP1S2f1:1155220</t>
-  </si>
-  <si>
-    <t>TMP1S2d1:TMP1S2d1:1155210</t>
+    <t>TMP2S2a1:TMP2S2a1:1155225</t>
+  </si>
+  <si>
+    <t>TMP2S2c2:TMP2S2c2:1156962</t>
+  </si>
+  <si>
+    <t>TMP2S2b1:TMP2S2b1:1155223</t>
   </si>
   <si>
     <t>TMP2S2b2:TMP2S2b2:1155222</t>
   </si>
   <si>
-    <t>TMP2S2b1:TMP2S2b1:1155223</t>
-  </si>
-  <si>
     <t>TMP2S2a2:TMP2S2a2:1155224</t>
   </si>
   <si>
-    <t>TMP2S2c2:TMP2S2c2:1156962</t>
-  </si>
-  <si>
-    <t>TMP2S2a1:TMP2S2a1:1155225</t>
-  </si>
-  <si>
     <t>TMP2S2c1:TMP2S2c1:1156963</t>
   </si>
   <si>
+    <t>TMP3S2b3:TMP3S2b3:1155228</t>
+  </si>
+  <si>
+    <t>TMP3S2b1:TMP3S2b1:1155229</t>
+  </si>
+  <si>
+    <t>TMP3S2b2:TMP3S2b2:1155230</t>
+  </si>
+  <si>
+    <t>TMP3S2a4:TMP3S2a4:1155231</t>
+  </si>
+  <si>
+    <t>TMP3S2a3:TMP3S2a3:1155232</t>
+  </si>
+  <si>
+    <t>TMP3S2a2:TMP3S2a2:1155233</t>
+  </si>
+  <si>
     <t>TMP3S2a1:TMP3S2a1:1155234</t>
   </si>
   <si>
-    <t>TMP3S2b1:TMP3S2b1:1155229</t>
-  </si>
-  <si>
-    <t>TMP3S2b2:TMP3S2b2:1155230</t>
-  </si>
-  <si>
-    <t>TMP3S2a4:TMP3S2a4:1155231</t>
-  </si>
-  <si>
-    <t>TMP3S2a3:TMP3S2a3:1155232</t>
-  </si>
-  <si>
-    <t>TMP3S2a2:TMP3S2a2:1155233</t>
-  </si>
-  <si>
-    <t>TMP3S2b3:TMP3S2b3:1155228</t>
-  </si>
-  <si>
     <t>TMP3S2b4:TMP3S2b4:1155227</t>
   </si>
   <si>
+    <t>TMP4S2a3:TMP4S2a3:1155241</t>
+  </si>
+  <si>
+    <t>TMP4S2a4:TMP4S2a4:1155237</t>
+  </si>
+  <si>
+    <t>TMP4S2b4:TMP4S2b4:1155236</t>
+  </si>
+  <si>
+    <t>TMP4S2b1:TMP4S2b1:1155240</t>
+  </si>
+  <si>
+    <t>TMP4S2a2:TMP4S2a2:1155242</t>
+  </si>
+  <si>
+    <t>TMP4S2a1:TMP4S2a1:1155243</t>
+  </si>
+  <si>
+    <t>TMP4S2b2:TMP4S2b2:1155239</t>
+  </si>
+  <si>
     <t>TMP4S2b3:TMP4S2b3:1155238</t>
   </si>
   <si>
-    <t>TMP4S2b4:TMP4S2b4:1155236</t>
-  </si>
-  <si>
-    <t>TMP4S2b2:TMP4S2b2:1155239</t>
-  </si>
-  <si>
-    <t>TMP4S2b1:TMP4S2b1:1155240</t>
-  </si>
-  <si>
-    <t>TMP4S2a3:TMP4S2a3:1155241</t>
-  </si>
-  <si>
-    <t>TMP4S2a1:TMP4S2a1:1155243</t>
-  </si>
-  <si>
-    <t>TMP4S2a4:TMP4S2a4:1155237</t>
-  </si>
-  <si>
-    <t>TMP4S2a2:TMP4S2a2:1155242</t>
+    <t>TMP5S2b4:TMP5S2b4:1155246</t>
   </si>
   <si>
     <t>TMP5S2a4:TMP5S2a4:1155245</t>
   </si>
   <si>
+    <t>TMP5S2a2:TMP5S2a2:1155249</t>
+  </si>
+  <si>
+    <t>TMP5S2b2:TMP5S2b2:1155250</t>
+  </si>
+  <si>
+    <t>TMP5S2b1:TMP5S2b1:1155251</t>
+  </si>
+  <si>
+    <t>TMP5S2a1:TMP5S2a1:1155252</t>
+  </si>
+  <si>
+    <t>TMP5S2a3:TMP5S2a3:1155247</t>
+  </si>
+  <si>
     <t>TMP5S2b3:TMP5S2b3:1155248</t>
   </si>
   <si>
-    <t>TMP5S2a2:TMP5S2a2:1155249</t>
-  </si>
-  <si>
-    <t>TMP5S2b2:TMP5S2b2:1155250</t>
-  </si>
-  <si>
-    <t>TMP5S2b1:TMP5S2b1:1155251</t>
-  </si>
-  <si>
-    <t>TMP5S2a1:TMP5S2a1:1155252</t>
-  </si>
-  <si>
-    <t>TMP5S2a3:TMP5S2a3:1155247</t>
-  </si>
-  <si>
-    <t>TMP5S2b4:TMP5S2b4:1155246</t>
+    <t>TMP6S2b1:TMP6S2b1:1155262</t>
+  </si>
+  <si>
+    <t>TMP6S2b2:TMP6S2b2:1155261</t>
+  </si>
+  <si>
+    <t>TMP6S2b3:TMP6S2b3:1155260</t>
+  </si>
+  <si>
+    <t>TMP6S2b4:TMP6S2b4:1155259</t>
+  </si>
+  <si>
+    <t>TMP6S2a1:TMP6S2a1:1155257</t>
   </si>
   <si>
     <t>TMP6S2a2:TMP6S2a2:1155256</t>
   </si>
   <si>
-    <t>TMP6S2a1:TMP6S2a1:1155257</t>
-  </si>
-  <si>
-    <t>TMP6S2b4:TMP6S2b4:1155259</t>
-  </si>
-  <si>
-    <t>TMP6S2b3:TMP6S2b3:1155260</t>
-  </si>
-  <si>
     <t>TMP6S2a4:TMP6S2a4:1155255</t>
   </si>
   <si>
     <t>TMP6S2a3:TMP6S2a3:1155254</t>
   </si>
   <si>
-    <t>TMP6S2b1:TMP6S2b1:1155262</t>
-  </si>
-  <si>
-    <t>TMP6S2b2:TMP6S2b2:1155261</t>
+    <t>TMP7S2c2:TMP7S2c2:1155275</t>
+  </si>
+  <si>
+    <t>TMP7S2a3:TMP7S2a3:1155267</t>
+  </si>
+  <si>
+    <t>TMP7S2c3:TMP7S2c3:1155274</t>
+  </si>
+  <si>
+    <t>TMP7S2d3:TMP7S2d3:1155273</t>
+  </si>
+  <si>
+    <t>TMP7S2d2:TMP7S2d2:1155272</t>
+  </si>
+  <si>
+    <t>TMP7S2d1:TMP7S2d1:1155271</t>
+  </si>
+  <si>
+    <t>TMP7S2a1:TMP7S2a1:1155269</t>
+  </si>
+  <si>
+    <t>TMP7S2a2:TMP7S2a2:1155268</t>
   </si>
   <si>
     <t>TMP7S2c1:TMP7S2c1:1155276</t>
   </si>
   <si>
-    <t>TMP7S2c2:TMP7S2c2:1155275</t>
-  </si>
-  <si>
-    <t>TMP7S2c3:TMP7S2c3:1155274</t>
-  </si>
-  <si>
-    <t>TMP7S2d3:TMP7S2d3:1155273</t>
-  </si>
-  <si>
-    <t>TMP7S2d2:TMP7S2d2:1155272</t>
-  </si>
-  <si>
-    <t>TMP7S2d1:TMP7S2d1:1155271</t>
-  </si>
-  <si>
-    <t>TMP7S2a1:TMP7S2a1:1155269</t>
-  </si>
-  <si>
-    <t>TMP7S2a2:TMP7S2a2:1155268</t>
-  </si>
-  <si>
-    <t>TMP7S2a3:TMP7S2a3:1155267</t>
-  </si>
-  <si>
     <t>TMP7S2b1:TMP7S2b1:1155266</t>
   </si>
   <si>
@@ -285,76 +285,67 @@
     <t>TMP7S2b2:TMP7S2b2:1155265</t>
   </si>
   <si>
-    <t>Floor:BSS.20mm Floor Finishes (600x150mm):1091107</t>
-  </si>
-  <si>
     <t>F</t>
   </si>
   <si>
     <t>+</t>
   </si>
   <si>
+    <t>blank</t>
+  </si>
+  <si>
+    <t>Fitting</t>
+  </si>
+  <si>
+    <t>BSS.GESSI.SM.49079:29046000:1090989</t>
+  </si>
+  <si>
+    <t>BSS.HAND SHOWER SET.MASTER BATH:BSS.HAND SHOWER SET.MASTER BATH:1091130</t>
+  </si>
+  <si>
+    <t>BSS.GOMGO.PH.GG-6106:Chrome 000:1090992</t>
+  </si>
+  <si>
+    <t>BSS.Vesbo Tee Fiting:Standard:1035758</t>
+  </si>
+  <si>
+    <t>BSS.MIRROR CABINET.C5-MASTER BATH:BSS.MIRROR CABINET.C5-MASTER BATH:1090945</t>
+  </si>
+  <si>
+    <t>BSS.LAUFEN.WC.820714:820959000 White:1091064</t>
+  </si>
+  <si>
+    <t>BSS.Shallow_FT:150 x 150MM:1018227</t>
+  </si>
+  <si>
+    <t>BSS.Vesbo Tee Fiting:Standard:1032950</t>
+  </si>
+  <si>
+    <t>BSS.Vesbo Tee Fiting:Standard:1033022</t>
+  </si>
+  <si>
+    <t>BSS.Shallow_FW:BSS.Shallow_FW:1038276</t>
+  </si>
+  <si>
+    <t>BSS.Vesbo Tee Fiting:Standard:1042747</t>
+  </si>
+  <si>
+    <t>BSS.MONIC.BIB TAP.T-4L:BIB TAP:1090961</t>
+  </si>
+  <si>
+    <t>BSS.GESSI,BM.49001:Default:1090988</t>
+  </si>
+  <si>
+    <t>BSS.GOMGO.TR.GG-6108-600:Chrome 000:1090991</t>
+  </si>
+  <si>
+    <t>BSS.TECE.AP.9240402:Flush Plate:1091024</t>
+  </si>
+  <si>
+    <t>BSS.Bottle Trap:BSS.Bottle trap:1018126</t>
+  </si>
+  <si>
     <t>6</t>
-  </si>
-  <si>
-    <t>blank</t>
-  </si>
-  <si>
-    <t>Fitting</t>
-  </si>
-  <si>
-    <t>BSS.HAND SHOWER SET.MASTER BATH:BSS.HAND SHOWER SET.MASTER BATH:1091130</t>
-  </si>
-  <si>
-    <t>BSS.GESSI.SM.49079:29046000:1090989</t>
-  </si>
-  <si>
-    <t>BSS.GOMGO.PH.GG-6106:Chrome 000:1090992</t>
-  </si>
-  <si>
-    <t>BSS.MIRROR CABINET.C5-MASTER BATH:BSS.MIRROR CABINET.C5-MASTER BATH:1090945</t>
-  </si>
-  <si>
-    <t>BSS.Vesbo Tee Fiting:Standard:1035758</t>
-  </si>
-  <si>
-    <t>BSS.Vesbo Tee Fiting:Standard:1032950</t>
-  </si>
-  <si>
-    <t>BSS.Vesbo Tee Fiting:Standard:1033022</t>
-  </si>
-  <si>
-    <t>BSS.Shallow_FW:BSS.Shallow_FW:1038276</t>
-  </si>
-  <si>
-    <t>BSS.Vesbo Tee Fiting:Standard:1042747</t>
-  </si>
-  <si>
-    <t>BSS.MONIC.BIB TAP.T-4L:BIB TAP:1090961</t>
-  </si>
-  <si>
-    <t>BSS.GESSI,BM.49001:Default:1090988</t>
-  </si>
-  <si>
-    <t>BSS.GOMGO.TR.GG-6108-600:Chrome 000:1090991</t>
-  </si>
-  <si>
-    <t>BSS.TECE.AP.9240402:Flush Plate:1091024</t>
-  </si>
-  <si>
-    <t>BSS.FLOOR DRAIN_100:BSS.FLOOR DRAIN_100:1091045</t>
-  </si>
-  <si>
-    <t>BSS.LAUFEN.WC.820714:820959000 White:1091064</t>
-  </si>
-  <si>
-    <t>BSS.FLOOR DRAIN_150:BSS.FLOOR DRAIN_150:1091065</t>
-  </si>
-  <si>
-    <t>BSS.Shallow_FT:150 x 150MM:1018227</t>
-  </si>
-  <si>
-    <t>BSS.Bottle Trap:BSS.Bottle trap:1018126</t>
   </si>
 </sst>
 </file>
@@ -712,7 +703,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O76"/>
+  <dimension ref="A1:O75"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -764,7 +755,7 @@
     </row>
     <row r="2" spans="1:15">
       <c r="A2" s="1">
-        <v>179</v>
+        <v>167</v>
       </c>
       <c r="B2" t="s">
         <v>14</v>
@@ -776,7 +767,7 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>-471</v>
+        <v>1350</v>
       </c>
       <c r="F2">
         <v>425</v>
@@ -788,7 +779,7 @@
         <v>1</v>
       </c>
       <c r="I2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="J2">
         <v>1</v>
@@ -802,7 +793,7 @@
     </row>
     <row r="3" spans="1:15">
       <c r="A3" s="1">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="B3" t="s">
         <v>14</v>
@@ -814,10 +805,10 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="F3">
-        <v>1025</v>
+        <v>-775</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -826,7 +817,7 @@
         <v>1</v>
       </c>
       <c r="I3" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="J3">
         <v>1</v>
@@ -840,7 +831,7 @@
     </row>
     <row r="4" spans="1:15">
       <c r="A4" s="1">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B4" t="s">
         <v>14</v>
@@ -852,10 +843,10 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="F4">
-        <v>425</v>
+        <v>-175</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -864,7 +855,7 @@
         <v>1</v>
       </c>
       <c r="I4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="J4">
         <v>1</v>
@@ -878,7 +869,7 @@
     </row>
     <row r="5" spans="1:15">
       <c r="A5" s="1">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B5" t="s">
         <v>14</v>
@@ -890,10 +881,10 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="F5">
-        <v>-175</v>
+        <v>425</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -902,7 +893,7 @@
         <v>1</v>
       </c>
       <c r="I5" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="J5">
         <v>1</v>
@@ -916,7 +907,7 @@
     </row>
     <row r="6" spans="1:15">
       <c r="A6" s="1">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="B6" t="s">
         <v>14</v>
@@ -928,10 +919,10 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="F6">
-        <v>-775</v>
+        <v>1025</v>
       </c>
       <c r="G6">
         <v>1</v>
@@ -940,7 +931,7 @@
         <v>1</v>
       </c>
       <c r="I6" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="J6">
         <v>1</v>
@@ -954,7 +945,7 @@
     </row>
     <row r="7" spans="1:15">
       <c r="A7" s="1">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="B7" t="s">
         <v>14</v>
@@ -966,10 +957,10 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>1349</v>
+        <v>30</v>
       </c>
       <c r="F7">
-        <v>1025</v>
+        <v>-775</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -978,7 +969,7 @@
         <v>1</v>
       </c>
       <c r="I7" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="J7">
         <v>1</v>
@@ -992,7 +983,7 @@
     </row>
     <row r="8" spans="1:15">
       <c r="A8" s="1">
-        <v>167</v>
+        <v>174</v>
       </c>
       <c r="B8" t="s">
         <v>14</v>
@@ -1004,10 +995,10 @@
         <v>0</v>
       </c>
       <c r="E8">
-        <v>1349</v>
+        <v>30</v>
       </c>
       <c r="F8">
-        <v>425</v>
+        <v>-175</v>
       </c>
       <c r="G8">
         <v>1</v>
@@ -1016,7 +1007,7 @@
         <v>1</v>
       </c>
       <c r="I8" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="J8">
         <v>1</v>
@@ -1030,7 +1021,7 @@
     </row>
     <row r="9" spans="1:15">
       <c r="A9" s="1">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="B9" t="s">
         <v>14</v>
@@ -1042,10 +1033,10 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>1349</v>
+        <v>30</v>
       </c>
       <c r="F9">
-        <v>-175</v>
+        <v>425</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -1054,7 +1045,7 @@
         <v>1</v>
       </c>
       <c r="I9" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="J9">
         <v>1</v>
@@ -1068,7 +1059,7 @@
     </row>
     <row r="10" spans="1:15">
       <c r="A10" s="1">
-        <v>165</v>
+        <v>176</v>
       </c>
       <c r="B10" t="s">
         <v>14</v>
@@ -1080,10 +1071,10 @@
         <v>0</v>
       </c>
       <c r="E10">
-        <v>1349</v>
+        <v>30</v>
       </c>
       <c r="F10">
-        <v>-775</v>
+        <v>1025</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -1092,7 +1083,7 @@
         <v>1</v>
       </c>
       <c r="I10" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="J10">
         <v>1</v>
@@ -1106,7 +1097,7 @@
     </row>
     <row r="11" spans="1:15">
       <c r="A11" s="1">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="B11" t="s">
         <v>14</v>
@@ -1118,10 +1109,10 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>29</v>
+        <v>-470</v>
       </c>
       <c r="F11">
-        <v>425</v>
+        <v>-775</v>
       </c>
       <c r="G11">
         <v>1</v>
@@ -1130,7 +1121,7 @@
         <v>1</v>
       </c>
       <c r="I11" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="J11">
         <v>1</v>
@@ -1144,7 +1135,7 @@
     </row>
     <row r="12" spans="1:15">
       <c r="A12" s="1">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="B12" t="s">
         <v>14</v>
@@ -1156,10 +1147,10 @@
         <v>0</v>
       </c>
       <c r="E12">
-        <v>29</v>
+        <v>-470</v>
       </c>
       <c r="F12">
-        <v>1025</v>
+        <v>-175</v>
       </c>
       <c r="G12">
         <v>1</v>
@@ -1168,7 +1159,7 @@
         <v>1</v>
       </c>
       <c r="I12" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="J12">
         <v>1</v>
@@ -1182,7 +1173,7 @@
     </row>
     <row r="13" spans="1:15">
       <c r="A13" s="1">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="B13" t="s">
         <v>14</v>
@@ -1194,10 +1185,10 @@
         <v>0</v>
       </c>
       <c r="E13">
-        <v>-471</v>
+        <v>-470</v>
       </c>
       <c r="F13">
-        <v>-775</v>
+        <v>425</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -1206,7 +1197,7 @@
         <v>1</v>
       </c>
       <c r="I13" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="J13">
         <v>1</v>
@@ -1220,7 +1211,7 @@
     </row>
     <row r="14" spans="1:15">
       <c r="A14" s="1">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="B14" t="s">
         <v>14</v>
@@ -1232,10 +1223,10 @@
         <v>0</v>
       </c>
       <c r="E14">
-        <v>-471</v>
+        <v>-470</v>
       </c>
       <c r="F14">
-        <v>-175</v>
+        <v>1025</v>
       </c>
       <c r="G14">
         <v>1</v>
@@ -1244,7 +1235,7 @@
         <v>1</v>
       </c>
       <c r="I14" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="J14">
         <v>1</v>
@@ -1258,7 +1249,7 @@
     </row>
     <row r="15" spans="1:15">
       <c r="A15" s="1">
-        <v>173</v>
+        <v>181</v>
       </c>
       <c r="B15" t="s">
         <v>14</v>
@@ -1270,10 +1261,10 @@
         <v>0</v>
       </c>
       <c r="E15">
-        <v>29</v>
+        <v>-490</v>
       </c>
       <c r="F15">
-        <v>-775</v>
+        <v>1025</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -1282,7 +1273,7 @@
         <v>1</v>
       </c>
       <c r="I15" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="J15">
         <v>1</v>
@@ -1296,7 +1287,7 @@
     </row>
     <row r="16" spans="1:15">
       <c r="A16" s="1">
-        <v>174</v>
+        <v>182</v>
       </c>
       <c r="B16" t="s">
         <v>14</v>
@@ -1308,7 +1299,7 @@
         <v>0</v>
       </c>
       <c r="E16">
-        <v>29</v>
+        <v>-490</v>
       </c>
       <c r="F16">
         <v>-175</v>
@@ -1320,7 +1311,7 @@
         <v>1</v>
       </c>
       <c r="I16" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="J16">
         <v>1</v>
@@ -1334,7 +1325,7 @@
     </row>
     <row r="17" spans="1:13">
       <c r="A17" s="1">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="B17" t="s">
         <v>14</v>
@@ -1346,10 +1337,10 @@
         <v>0</v>
       </c>
       <c r="E17">
-        <v>-491</v>
+        <v>-490</v>
       </c>
       <c r="F17">
-        <v>1025</v>
+        <v>425</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -1358,7 +1349,7 @@
         <v>1</v>
       </c>
       <c r="I17" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="J17">
         <v>1</v>
@@ -1372,7 +1363,7 @@
     </row>
     <row r="18" spans="1:13">
       <c r="A18" s="1">
-        <v>182</v>
+        <v>168</v>
       </c>
       <c r="B18" t="s">
         <v>14</v>
@@ -1384,10 +1375,10 @@
         <v>0</v>
       </c>
       <c r="E18">
-        <v>-491</v>
+        <v>1350</v>
       </c>
       <c r="F18">
-        <v>-175</v>
+        <v>1025</v>
       </c>
       <c r="G18">
         <v>1</v>
@@ -1396,7 +1387,7 @@
         <v>1</v>
       </c>
       <c r="I18" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="J18">
         <v>1</v>
@@ -1410,7 +1401,7 @@
     </row>
     <row r="19" spans="1:13">
       <c r="A19" s="1">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B19" t="s">
         <v>14</v>
@@ -1422,10 +1413,10 @@
         <v>0</v>
       </c>
       <c r="E19">
-        <v>-491</v>
+        <v>-490</v>
       </c>
       <c r="F19">
-        <v>425</v>
+        <v>1025</v>
       </c>
       <c r="G19">
         <v>1</v>
@@ -1434,7 +1425,7 @@
         <v>1</v>
       </c>
       <c r="I19" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="J19">
         <v>1</v>
@@ -1448,7 +1439,7 @@
     </row>
     <row r="20" spans="1:13">
       <c r="A20" s="1">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B20" t="s">
         <v>14</v>
@@ -1460,10 +1451,10 @@
         <v>0</v>
       </c>
       <c r="E20">
-        <v>-491</v>
+        <v>-935</v>
       </c>
       <c r="F20">
-        <v>1025</v>
+        <v>-775</v>
       </c>
       <c r="G20">
         <v>1</v>
@@ -1472,7 +1463,7 @@
         <v>1</v>
       </c>
       <c r="I20" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="J20">
         <v>1</v>
@@ -1486,7 +1477,7 @@
     </row>
     <row r="21" spans="1:13">
       <c r="A21" s="1">
-        <v>185</v>
+        <v>165</v>
       </c>
       <c r="B21" t="s">
         <v>14</v>
@@ -1498,7 +1489,7 @@
         <v>0</v>
       </c>
       <c r="E21">
-        <v>-936</v>
+        <v>1350</v>
       </c>
       <c r="F21">
         <v>-775</v>
@@ -1510,7 +1501,7 @@
         <v>1</v>
       </c>
       <c r="I21" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="J21">
         <v>1</v>
@@ -1536,7 +1527,7 @@
         <v>0</v>
       </c>
       <c r="E22">
-        <v>-936</v>
+        <v>-935</v>
       </c>
       <c r="F22">
         <v>-175</v>
@@ -1548,7 +1539,7 @@
         <v>1</v>
       </c>
       <c r="I22" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="J22">
         <v>1</v>
@@ -1574,7 +1565,7 @@
         <v>0</v>
       </c>
       <c r="E23">
-        <v>-936</v>
+        <v>-935</v>
       </c>
       <c r="F23">
         <v>425</v>
@@ -1586,7 +1577,7 @@
         <v>1</v>
       </c>
       <c r="I23" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="J23">
         <v>1</v>
@@ -1612,7 +1603,7 @@
         <v>0</v>
       </c>
       <c r="E24">
-        <v>-936</v>
+        <v>-935</v>
       </c>
       <c r="F24">
         <v>1025</v>
@@ -1624,7 +1615,7 @@
         <v>1</v>
       </c>
       <c r="I24" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="J24">
         <v>1</v>
@@ -1638,7 +1629,7 @@
     </row>
     <row r="25" spans="1:13">
       <c r="A25" s="1">
-        <v>180</v>
+        <v>166</v>
       </c>
       <c r="B25" t="s">
         <v>14</v>
@@ -1650,10 +1641,10 @@
         <v>0</v>
       </c>
       <c r="E25">
-        <v>-471</v>
+        <v>1350</v>
       </c>
       <c r="F25">
-        <v>1025</v>
+        <v>-175</v>
       </c>
       <c r="G25">
         <v>1</v>
@@ -1662,7 +1653,7 @@
         <v>1</v>
       </c>
       <c r="I25" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="J25">
         <v>1</v>
@@ -1676,7 +1667,7 @@
     </row>
     <row r="26" spans="1:13">
       <c r="A26" s="1">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="B26" t="s">
         <v>14</v>
@@ -1685,13 +1676,13 @@
         <v>39</v>
       </c>
       <c r="D26">
-        <v>-2762</v>
+        <v>-2760</v>
       </c>
       <c r="E26">
-        <v>100</v>
+        <v>-500</v>
       </c>
       <c r="F26">
-        <v>-775</v>
+        <v>-175</v>
       </c>
       <c r="G26">
         <v>2</v>
@@ -1700,7 +1691,7 @@
         <v>1</v>
       </c>
       <c r="I26" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="J26">
         <v>1</v>
@@ -1714,7 +1705,7 @@
     </row>
     <row r="27" spans="1:13">
       <c r="A27" s="1">
-        <v>190</v>
+        <v>237</v>
       </c>
       <c r="B27" t="s">
         <v>14</v>
@@ -1723,13 +1714,13 @@
         <v>40</v>
       </c>
       <c r="D27">
-        <v>-2762</v>
+        <v>-2760</v>
       </c>
       <c r="E27">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="F27">
-        <v>-175</v>
+        <v>425</v>
       </c>
       <c r="G27">
         <v>2</v>
@@ -1738,7 +1729,7 @@
         <v>1</v>
       </c>
       <c r="I27" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="J27">
         <v>1</v>
@@ -1752,7 +1743,7 @@
     </row>
     <row r="28" spans="1:13">
       <c r="A28" s="1">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B28" t="s">
         <v>14</v>
@@ -1761,13 +1752,13 @@
         <v>41</v>
       </c>
       <c r="D28">
-        <v>-2762</v>
+        <v>-2760</v>
       </c>
       <c r="E28">
-        <v>-500</v>
+        <v>100</v>
       </c>
       <c r="F28">
-        <v>-775</v>
+        <v>-175</v>
       </c>
       <c r="G28">
         <v>2</v>
@@ -1776,7 +1767,7 @@
         <v>1</v>
       </c>
       <c r="I28" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="J28">
         <v>1</v>
@@ -1790,7 +1781,7 @@
     </row>
     <row r="29" spans="1:13">
       <c r="A29" s="1">
-        <v>237</v>
+        <v>189</v>
       </c>
       <c r="B29" t="s">
         <v>14</v>
@@ -1799,13 +1790,13 @@
         <v>42</v>
       </c>
       <c r="D29">
-        <v>-2762</v>
+        <v>-2760</v>
       </c>
       <c r="E29">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="F29">
-        <v>425</v>
+        <v>-775</v>
       </c>
       <c r="G29">
         <v>2</v>
@@ -1814,7 +1805,7 @@
         <v>1</v>
       </c>
       <c r="I29" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="J29">
         <v>1</v>
@@ -1828,7 +1819,7 @@
     </row>
     <row r="30" spans="1:13">
       <c r="A30" s="1">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B30" t="s">
         <v>14</v>
@@ -1837,13 +1828,13 @@
         <v>43</v>
       </c>
       <c r="D30">
-        <v>-2762</v>
+        <v>-2760</v>
       </c>
       <c r="E30">
         <v>-500</v>
       </c>
       <c r="F30">
-        <v>-175</v>
+        <v>-775</v>
       </c>
       <c r="G30">
         <v>2</v>
@@ -1852,7 +1843,7 @@
         <v>1</v>
       </c>
       <c r="I30" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="J30">
         <v>1</v>
@@ -1875,7 +1866,7 @@
         <v>44</v>
       </c>
       <c r="D31">
-        <v>-2762</v>
+        <v>-2760</v>
       </c>
       <c r="E31">
         <v>150</v>
@@ -1890,7 +1881,7 @@
         <v>1</v>
       </c>
       <c r="I31" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="J31">
         <v>1</v>
@@ -1904,7 +1895,7 @@
     </row>
     <row r="32" spans="1:13">
       <c r="A32" s="1">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="B32" t="s">
         <v>14</v>
@@ -1916,10 +1907,10 @@
         <v>1200</v>
       </c>
       <c r="E32">
-        <v>0</v>
+        <v>-445</v>
       </c>
       <c r="F32">
-        <v>1025</v>
+        <v>-175</v>
       </c>
       <c r="G32">
         <v>3</v>
@@ -1928,7 +1919,7 @@
         <v>1</v>
       </c>
       <c r="I32" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="J32">
         <v>1</v>
@@ -1966,7 +1957,7 @@
         <v>1</v>
       </c>
       <c r="I33" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="J33">
         <v>1</v>
@@ -2004,7 +1995,7 @@
         <v>1</v>
       </c>
       <c r="I34" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="J34">
         <v>1</v>
@@ -2042,7 +2033,7 @@
         <v>1</v>
       </c>
       <c r="I35" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="J35">
         <v>1</v>
@@ -2080,7 +2071,7 @@
         <v>1</v>
       </c>
       <c r="I36" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="J36">
         <v>1</v>
@@ -2118,7 +2109,7 @@
         <v>1</v>
       </c>
       <c r="I37" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="J37">
         <v>1</v>
@@ -2132,7 +2123,7 @@
     </row>
     <row r="38" spans="1:13">
       <c r="A38" s="1">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="B38" t="s">
         <v>14</v>
@@ -2144,10 +2135,10 @@
         <v>1200</v>
       </c>
       <c r="E38">
-        <v>-445</v>
+        <v>0</v>
       </c>
       <c r="F38">
-        <v>-175</v>
+        <v>1025</v>
       </c>
       <c r="G38">
         <v>3</v>
@@ -2156,7 +2147,7 @@
         <v>1</v>
       </c>
       <c r="I38" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="J38">
         <v>1</v>
@@ -2194,7 +2185,7 @@
         <v>1</v>
       </c>
       <c r="I39" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="J39">
         <v>1</v>
@@ -2208,7 +2199,7 @@
     </row>
     <row r="40" spans="1:13">
       <c r="A40" s="1">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="B40" t="s">
         <v>14</v>
@@ -2220,7 +2211,7 @@
         <v>960</v>
       </c>
       <c r="E40">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="F40">
         <v>-175</v>
@@ -2232,7 +2223,7 @@
         <v>1</v>
       </c>
       <c r="I40" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="J40">
         <v>1</v>
@@ -2246,7 +2237,7 @@
     </row>
     <row r="41" spans="1:13">
       <c r="A41" s="1">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B41" t="s">
         <v>14</v>
@@ -2258,7 +2249,7 @@
         <v>960</v>
       </c>
       <c r="E41">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="F41">
         <v>-775</v>
@@ -2270,7 +2261,7 @@
         <v>1</v>
       </c>
       <c r="I41" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="J41">
         <v>1</v>
@@ -2284,7 +2275,7 @@
     </row>
     <row r="42" spans="1:13">
       <c r="A42" s="1">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="B42" t="s">
         <v>14</v>
@@ -2299,7 +2290,7 @@
         <v>0</v>
       </c>
       <c r="F42">
-        <v>425</v>
+        <v>-775</v>
       </c>
       <c r="G42">
         <v>4</v>
@@ -2308,7 +2299,7 @@
         <v>1</v>
       </c>
       <c r="I42" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="J42">
         <v>1</v>
@@ -2346,7 +2337,7 @@
         <v>1</v>
       </c>
       <c r="I43" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="J43">
         <v>1</v>
@@ -2360,7 +2351,7 @@
     </row>
     <row r="44" spans="1:13">
       <c r="A44" s="1">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B44" t="s">
         <v>14</v>
@@ -2375,7 +2366,7 @@
         <v>300</v>
       </c>
       <c r="F44">
-        <v>-175</v>
+        <v>425</v>
       </c>
       <c r="G44">
         <v>4</v>
@@ -2384,7 +2375,7 @@
         <v>1</v>
       </c>
       <c r="I44" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="J44">
         <v>1</v>
@@ -2422,7 +2413,7 @@
         <v>1</v>
       </c>
       <c r="I45" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="J45">
         <v>1</v>
@@ -2436,7 +2427,7 @@
     </row>
     <row r="46" spans="1:13">
       <c r="A46" s="1">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="B46" t="s">
         <v>14</v>
@@ -2448,10 +2439,10 @@
         <v>960</v>
       </c>
       <c r="E46">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="F46">
-        <v>-775</v>
+        <v>425</v>
       </c>
       <c r="G46">
         <v>4</v>
@@ -2460,7 +2451,7 @@
         <v>1</v>
       </c>
       <c r="I46" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="J46">
         <v>1</v>
@@ -2474,7 +2465,7 @@
     </row>
     <row r="47" spans="1:13">
       <c r="A47" s="1">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="B47" t="s">
         <v>14</v>
@@ -2486,10 +2477,10 @@
         <v>960</v>
       </c>
       <c r="E47">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="F47">
-        <v>425</v>
+        <v>-175</v>
       </c>
       <c r="G47">
         <v>4</v>
@@ -2498,7 +2489,7 @@
         <v>1</v>
       </c>
       <c r="I47" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="J47">
         <v>1</v>
@@ -2512,7 +2503,7 @@
     </row>
     <row r="48" spans="1:13">
       <c r="A48" s="1">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B48" t="s">
         <v>14</v>
@@ -2527,7 +2518,7 @@
         <v>900</v>
       </c>
       <c r="F48">
-        <v>-775</v>
+        <v>-25</v>
       </c>
       <c r="G48">
         <v>5</v>
@@ -2536,7 +2527,7 @@
         <v>1</v>
       </c>
       <c r="I48" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="J48">
         <v>1</v>
@@ -2550,7 +2541,7 @@
     </row>
     <row r="49" spans="1:13">
       <c r="A49" s="1">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="B49" t="s">
         <v>14</v>
@@ -2562,10 +2553,10 @@
         <v>600</v>
       </c>
       <c r="E49">
-        <v>450</v>
+        <v>900</v>
       </c>
       <c r="F49">
-        <v>-25</v>
+        <v>-775</v>
       </c>
       <c r="G49">
         <v>5</v>
@@ -2574,7 +2565,7 @@
         <v>1</v>
       </c>
       <c r="I49" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="J49">
         <v>1</v>
@@ -2612,7 +2603,7 @@
         <v>1</v>
       </c>
       <c r="I50" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="J50">
         <v>1</v>
@@ -2650,7 +2641,7 @@
         <v>1</v>
       </c>
       <c r="I51" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="J51">
         <v>1</v>
@@ -2688,7 +2679,7 @@
         <v>1</v>
       </c>
       <c r="I52" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="J52">
         <v>1</v>
@@ -2726,7 +2717,7 @@
         <v>1</v>
       </c>
       <c r="I53" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="J53">
         <v>1</v>
@@ -2764,7 +2755,7 @@
         <v>1</v>
       </c>
       <c r="I54" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="J54">
         <v>1</v>
@@ -2778,7 +2769,7 @@
     </row>
     <row r="55" spans="1:13">
       <c r="A55" s="1">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="B55" t="s">
         <v>14</v>
@@ -2790,7 +2781,7 @@
         <v>600</v>
       </c>
       <c r="E55">
-        <v>900</v>
+        <v>450</v>
       </c>
       <c r="F55">
         <v>-25</v>
@@ -2802,7 +2793,7 @@
         <v>1</v>
       </c>
       <c r="I55" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="J55">
         <v>1</v>
@@ -2816,7 +2807,7 @@
     </row>
     <row r="56" spans="1:13">
       <c r="A56" s="1">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="B56" t="s">
         <v>14</v>
@@ -2828,10 +2819,10 @@
         <v>960</v>
       </c>
       <c r="E56">
-        <v>300</v>
+        <v>-300</v>
       </c>
       <c r="F56">
-        <v>450</v>
+        <v>1050</v>
       </c>
       <c r="G56">
         <v>6</v>
@@ -2840,7 +2831,7 @@
         <v>1</v>
       </c>
       <c r="I56" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="J56">
         <v>1</v>
@@ -2854,7 +2845,7 @@
     </row>
     <row r="57" spans="1:13">
       <c r="A57" s="1">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="B57" t="s">
         <v>14</v>
@@ -2866,10 +2857,10 @@
         <v>960</v>
       </c>
       <c r="E57">
-        <v>300</v>
+        <v>-300</v>
       </c>
       <c r="F57">
-        <v>1050</v>
+        <v>450</v>
       </c>
       <c r="G57">
         <v>6</v>
@@ -2878,7 +2869,7 @@
         <v>1</v>
       </c>
       <c r="I57" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="J57">
         <v>1</v>
@@ -2892,7 +2883,7 @@
     </row>
     <row r="58" spans="1:13">
       <c r="A58" s="1">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B58" t="s">
         <v>14</v>
@@ -2907,7 +2898,7 @@
         <v>-300</v>
       </c>
       <c r="F58">
-        <v>-750</v>
+        <v>-150</v>
       </c>
       <c r="G58">
         <v>6</v>
@@ -2916,7 +2907,7 @@
         <v>1</v>
       </c>
       <c r="I58" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="J58">
         <v>1</v>
@@ -2930,7 +2921,7 @@
     </row>
     <row r="59" spans="1:13">
       <c r="A59" s="1">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B59" t="s">
         <v>14</v>
@@ -2945,7 +2936,7 @@
         <v>-300</v>
       </c>
       <c r="F59">
-        <v>-150</v>
+        <v>-750</v>
       </c>
       <c r="G59">
         <v>6</v>
@@ -2954,7 +2945,7 @@
         <v>1</v>
       </c>
       <c r="I59" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="J59">
         <v>1</v>
@@ -2968,7 +2959,7 @@
     </row>
     <row r="60" spans="1:13">
       <c r="A60" s="1">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="B60" t="s">
         <v>14</v>
@@ -2983,7 +2974,7 @@
         <v>300</v>
       </c>
       <c r="F60">
-        <v>-150</v>
+        <v>1050</v>
       </c>
       <c r="G60">
         <v>6</v>
@@ -2992,7 +2983,7 @@
         <v>1</v>
       </c>
       <c r="I60" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="J60">
         <v>1</v>
@@ -3006,7 +2997,7 @@
     </row>
     <row r="61" spans="1:13">
       <c r="A61" s="1">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="B61" t="s">
         <v>14</v>
@@ -3021,7 +3012,7 @@
         <v>300</v>
       </c>
       <c r="F61">
-        <v>-750</v>
+        <v>450</v>
       </c>
       <c r="G61">
         <v>6</v>
@@ -3030,7 +3021,7 @@
         <v>1</v>
       </c>
       <c r="I61" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="J61">
         <v>1</v>
@@ -3044,7 +3035,7 @@
     </row>
     <row r="62" spans="1:13">
       <c r="A62" s="1">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="B62" t="s">
         <v>14</v>
@@ -3056,10 +3047,10 @@
         <v>960</v>
       </c>
       <c r="E62">
-        <v>-300</v>
+        <v>300</v>
       </c>
       <c r="F62">
-        <v>1050</v>
+        <v>-150</v>
       </c>
       <c r="G62">
         <v>6</v>
@@ -3068,7 +3059,7 @@
         <v>1</v>
       </c>
       <c r="I62" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="J62">
         <v>1</v>
@@ -3082,7 +3073,7 @@
     </row>
     <row r="63" spans="1:13">
       <c r="A63" s="1">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="B63" t="s">
         <v>14</v>
@@ -3094,10 +3085,10 @@
         <v>960</v>
       </c>
       <c r="E63">
-        <v>-300</v>
+        <v>300</v>
       </c>
       <c r="F63">
-        <v>450</v>
+        <v>-750</v>
       </c>
       <c r="G63">
         <v>6</v>
@@ -3106,7 +3097,7 @@
         <v>1</v>
       </c>
       <c r="I63" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="J63">
         <v>1</v>
@@ -3120,7 +3111,7 @@
     </row>
     <row r="64" spans="1:13">
       <c r="A64" s="1">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B64" t="s">
         <v>14</v>
@@ -3132,19 +3123,19 @@
         <v>720</v>
       </c>
       <c r="E64">
-        <v>1050</v>
+        <v>600</v>
       </c>
       <c r="F64">
         <v>-25</v>
       </c>
       <c r="G64" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H64">
         <v>1</v>
       </c>
       <c r="I64" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="J64">
         <v>1</v>
@@ -3158,7 +3149,7 @@
     </row>
     <row r="65" spans="1:13">
       <c r="A65" s="1">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="B65" t="s">
         <v>14</v>
@@ -3167,22 +3158,22 @@
         <v>78</v>
       </c>
       <c r="D65">
-        <v>720</v>
+        <v>2310</v>
       </c>
       <c r="E65">
-        <v>600</v>
+        <v>150</v>
       </c>
       <c r="F65">
         <v>-25</v>
       </c>
       <c r="G65" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H65">
         <v>1</v>
       </c>
       <c r="I65" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="J65">
         <v>1</v>
@@ -3214,13 +3205,13 @@
         <v>-25</v>
       </c>
       <c r="G66" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H66">
         <v>1</v>
       </c>
       <c r="I66" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="J66">
         <v>1</v>
@@ -3252,13 +3243,13 @@
         <v>-25</v>
       </c>
       <c r="G67" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H67">
         <v>1</v>
       </c>
       <c r="I67" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="J67">
         <v>1</v>
@@ -3290,13 +3281,13 @@
         <v>-25</v>
       </c>
       <c r="G68" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H68">
         <v>1</v>
       </c>
       <c r="I68" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="J68">
         <v>1</v>
@@ -3328,13 +3319,13 @@
         <v>-25</v>
       </c>
       <c r="G69" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H69">
         <v>1</v>
       </c>
       <c r="I69" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="J69">
         <v>1</v>
@@ -3366,13 +3357,13 @@
         <v>-25</v>
       </c>
       <c r="G70" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H70">
         <v>1</v>
       </c>
       <c r="I70" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="J70">
         <v>1</v>
@@ -3404,13 +3395,13 @@
         <v>-25</v>
       </c>
       <c r="G71" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H71">
         <v>1</v>
       </c>
       <c r="I71" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="J71">
         <v>1</v>
@@ -3424,7 +3415,7 @@
     </row>
     <row r="72" spans="1:13">
       <c r="A72" s="1">
-        <v>228</v>
+        <v>236</v>
       </c>
       <c r="B72" t="s">
         <v>14</v>
@@ -3433,22 +3424,22 @@
         <v>85</v>
       </c>
       <c r="D72">
-        <v>2310</v>
+        <v>720</v>
       </c>
       <c r="E72">
-        <v>150</v>
+        <v>1050</v>
       </c>
       <c r="F72">
         <v>-25</v>
       </c>
       <c r="G72" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H72">
         <v>1</v>
       </c>
       <c r="I72" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="J72">
         <v>1</v>
@@ -3480,13 +3471,13 @@
         <v>-25</v>
       </c>
       <c r="G73" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H73">
         <v>1</v>
       </c>
       <c r="I73" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="J73">
         <v>1</v>
@@ -3518,13 +3509,13 @@
         <v>-25</v>
       </c>
       <c r="G74" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H74">
         <v>1</v>
       </c>
       <c r="I74" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="J74">
         <v>1</v>
@@ -3556,13 +3547,13 @@
         <v>-25</v>
       </c>
       <c r="G75" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H75">
         <v>1</v>
       </c>
       <c r="I75" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="J75">
         <v>1</v>
@@ -3571,44 +3562,6 @@
         <v>2900</v>
       </c>
       <c r="M75">
-        <v>1932</v>
-      </c>
-    </row>
-    <row r="76" spans="1:13">
-      <c r="A76" s="1">
-        <v>161</v>
-      </c>
-      <c r="B76" t="s">
-        <v>14</v>
-      </c>
-      <c r="C76" t="s">
-        <v>89</v>
-      </c>
-      <c r="D76">
-        <v>840</v>
-      </c>
-      <c r="E76">
-        <v>0</v>
-      </c>
-      <c r="F76">
-        <v>-70</v>
-      </c>
-      <c r="G76" t="s">
-        <v>90</v>
-      </c>
-      <c r="H76">
-        <v>6</v>
-      </c>
-      <c r="I76" t="s">
-        <v>93</v>
-      </c>
-      <c r="J76">
-        <v>1</v>
-      </c>
-      <c r="L76">
-        <v>2900</v>
-      </c>
-      <c r="M76">
         <v>1932</v>
       </c>
     </row>
@@ -3619,7 +3572,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O19"/>
+  <dimension ref="A1:O17"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3671,22 +3624,22 @@
     </row>
     <row r="2" spans="1:15">
       <c r="A2" s="1">
-        <v>164</v>
+        <v>146</v>
       </c>
       <c r="B2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D2">
-        <v>1202</v>
+        <v>1200</v>
       </c>
       <c r="E2">
-        <v>-160</v>
+        <v>-210</v>
       </c>
       <c r="F2">
-        <v>-181</v>
+        <v>-50</v>
       </c>
       <c r="G2">
         <v>3</v>
@@ -3695,7 +3648,7 @@
         <v>6</v>
       </c>
       <c r="I2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="J2">
         <v>1</v>
@@ -3709,22 +3662,22 @@
     </row>
     <row r="3" spans="1:15">
       <c r="A3" s="1">
-        <v>146</v>
+        <v>164</v>
       </c>
       <c r="B3" t="s">
+        <v>92</v>
+      </c>
+      <c r="C3" t="s">
         <v>94</v>
       </c>
-      <c r="C3" t="s">
-        <v>96</v>
-      </c>
       <c r="D3">
-        <v>1200</v>
+        <v>1202</v>
       </c>
       <c r="E3">
-        <v>-210</v>
+        <v>-160</v>
       </c>
       <c r="F3">
-        <v>-50</v>
+        <v>-181</v>
       </c>
       <c r="G3">
         <v>3</v>
@@ -3733,7 +3686,7 @@
         <v>6</v>
       </c>
       <c r="I3" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="J3">
         <v>1</v>
@@ -3750,10 +3703,10 @@
         <v>149</v>
       </c>
       <c r="B4" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C4" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D4">
         <v>960</v>
@@ -3771,7 +3724,7 @@
         <v>6</v>
       </c>
       <c r="I4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="J4">
         <v>1</v>
@@ -3785,22 +3738,22 @@
     </row>
     <row r="5" spans="1:15">
       <c r="A5" s="1">
-        <v>143</v>
+        <v>70</v>
       </c>
       <c r="B5" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C5" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D5">
-        <v>600</v>
+        <v>637</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>800</v>
       </c>
       <c r="F5">
-        <v>125</v>
+        <v>-365</v>
       </c>
       <c r="G5">
         <v>5</v>
@@ -3809,7 +3762,7 @@
         <v>6</v>
       </c>
       <c r="I5" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="J5">
         <v>1</v>
@@ -3823,22 +3776,22 @@
     </row>
     <row r="6" spans="1:15">
       <c r="A6" s="1">
-        <v>70</v>
+        <v>143</v>
       </c>
       <c r="B6" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C6" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D6">
-        <v>637</v>
+        <v>600</v>
       </c>
       <c r="E6">
-        <v>800</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>-365</v>
+        <v>125</v>
       </c>
       <c r="G6">
         <v>5</v>
@@ -3847,7 +3800,7 @@
         <v>6</v>
       </c>
       <c r="I6" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="J6">
         <v>1</v>
@@ -3861,31 +3814,31 @@
     </row>
     <row r="7" spans="1:15">
       <c r="A7" s="1">
-        <v>58</v>
+        <v>158</v>
       </c>
       <c r="B7" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C7" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D7">
-        <v>2235</v>
+        <v>1285</v>
       </c>
       <c r="E7">
-        <v>1650</v>
+        <v>1592</v>
       </c>
       <c r="F7">
-        <v>100</v>
+        <v>-24</v>
       </c>
       <c r="G7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H7">
         <v>6</v>
       </c>
       <c r="I7" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="J7">
         <v>1</v>
@@ -3899,31 +3852,31 @@
     </row>
     <row r="8" spans="1:15">
       <c r="A8" s="1">
-        <v>61</v>
+        <v>36</v>
       </c>
       <c r="B8" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C8" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D8">
-        <v>2385</v>
+        <v>645</v>
       </c>
       <c r="E8">
-        <v>1710</v>
+        <v>1112</v>
       </c>
       <c r="F8">
-        <v>175</v>
+        <v>-77</v>
       </c>
       <c r="G8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H8">
         <v>6</v>
       </c>
       <c r="I8" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="J8">
         <v>1</v>
@@ -3937,31 +3890,31 @@
     </row>
     <row r="9" spans="1:15">
       <c r="A9" s="1">
-        <v>74</v>
+        <v>58</v>
       </c>
       <c r="B9" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C9" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D9">
-        <v>1010</v>
+        <v>2235</v>
       </c>
       <c r="E9">
-        <v>1535</v>
+        <v>1650</v>
       </c>
       <c r="F9">
-        <v>-77</v>
+        <v>100</v>
       </c>
       <c r="G9" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H9">
         <v>6</v>
       </c>
       <c r="I9" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="J9">
         <v>1</v>
@@ -3975,31 +3928,31 @@
     </row>
     <row r="10" spans="1:15">
       <c r="A10" s="1">
-        <v>103</v>
+        <v>61</v>
       </c>
       <c r="B10" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C10" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D10">
-        <v>2660</v>
+        <v>2385</v>
       </c>
       <c r="E10">
-        <v>435</v>
+        <v>1710</v>
       </c>
       <c r="F10">
-        <v>210</v>
+        <v>175</v>
       </c>
       <c r="G10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H10">
         <v>6</v>
       </c>
       <c r="I10" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="J10">
         <v>1</v>
@@ -4013,31 +3966,31 @@
     </row>
     <row r="11" spans="1:15">
       <c r="A11" s="1">
-        <v>144</v>
+        <v>74</v>
       </c>
       <c r="B11" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C11" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D11">
-        <v>1060</v>
+        <v>1010</v>
       </c>
       <c r="E11">
-        <v>1580</v>
+        <v>1535</v>
       </c>
       <c r="F11">
-        <v>275</v>
+        <v>-77</v>
       </c>
       <c r="G11" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H11">
         <v>6</v>
       </c>
       <c r="I11" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="J11">
         <v>1</v>
@@ -4051,31 +4004,31 @@
     </row>
     <row r="12" spans="1:15">
       <c r="A12" s="1">
-        <v>145</v>
+        <v>103</v>
       </c>
       <c r="B12" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C12" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D12">
-        <v>2310</v>
+        <v>2660</v>
       </c>
       <c r="E12">
-        <v>1740</v>
+        <v>435</v>
       </c>
       <c r="F12">
-        <v>825</v>
+        <v>210</v>
       </c>
       <c r="G12" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H12">
         <v>6</v>
       </c>
       <c r="I12" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="J12">
         <v>1</v>
@@ -4089,31 +4042,31 @@
     </row>
     <row r="13" spans="1:15">
       <c r="A13" s="1">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="B13" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C13" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D13">
-        <v>1320</v>
+        <v>1060</v>
       </c>
       <c r="E13">
-        <v>0</v>
+        <v>1580</v>
       </c>
       <c r="F13">
-        <v>1175</v>
+        <v>275</v>
       </c>
       <c r="G13" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H13">
         <v>6</v>
       </c>
       <c r="I13" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="J13">
         <v>1</v>
@@ -4127,31 +4080,31 @@
     </row>
     <row r="14" spans="1:15">
       <c r="A14" s="1">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="B14" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C14" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D14">
-        <v>1410</v>
+        <v>2310</v>
       </c>
       <c r="E14">
-        <v>1692</v>
+        <v>1740</v>
       </c>
       <c r="F14">
         <v>825</v>
       </c>
       <c r="G14" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H14">
         <v>6</v>
       </c>
       <c r="I14" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="J14">
         <v>1</v>
@@ -4165,31 +4118,31 @@
     </row>
     <row r="15" spans="1:15">
       <c r="A15" s="1">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="B15" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C15" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D15">
-        <v>1010</v>
+        <v>1320</v>
       </c>
       <c r="E15">
-        <v>1535</v>
+        <v>0</v>
       </c>
       <c r="F15">
-        <v>-25</v>
+        <v>1175</v>
       </c>
       <c r="G15" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H15">
         <v>6</v>
       </c>
       <c r="I15" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="J15">
         <v>1</v>
@@ -4203,31 +4156,31 @@
     </row>
     <row r="16" spans="1:15">
       <c r="A16" s="1">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="B16" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C16" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D16">
-        <v>1285</v>
+        <v>1410</v>
       </c>
       <c r="E16">
-        <v>1592</v>
+        <v>1692</v>
       </c>
       <c r="F16">
-        <v>-24</v>
+        <v>825</v>
       </c>
       <c r="G16" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H16">
         <v>6</v>
       </c>
       <c r="I16" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="J16">
         <v>1</v>
@@ -4241,31 +4194,31 @@
     </row>
     <row r="17" spans="1:13">
       <c r="A17" s="1">
-        <v>159</v>
+        <v>0</v>
       </c>
       <c r="B17" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C17" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D17">
-        <v>645</v>
+        <v>2310</v>
       </c>
       <c r="E17">
-        <v>1075</v>
+        <v>1505</v>
       </c>
       <c r="F17">
-        <v>-50</v>
+        <v>547</v>
       </c>
       <c r="G17" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H17">
         <v>6</v>
       </c>
       <c r="I17" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="J17">
         <v>1</v>
@@ -4274,82 +4227,6 @@
         <v>2900</v>
       </c>
       <c r="M17">
-        <v>1932</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
-      <c r="A18" s="1">
-        <v>36</v>
-      </c>
-      <c r="B18" t="s">
-        <v>94</v>
-      </c>
-      <c r="C18" t="s">
-        <v>111</v>
-      </c>
-      <c r="D18">
-        <v>645</v>
-      </c>
-      <c r="E18">
-        <v>1112</v>
-      </c>
-      <c r="F18">
-        <v>-77</v>
-      </c>
-      <c r="G18" t="s">
-        <v>90</v>
-      </c>
-      <c r="H18">
-        <v>6</v>
-      </c>
-      <c r="I18" t="s">
-        <v>93</v>
-      </c>
-      <c r="J18">
-        <v>1</v>
-      </c>
-      <c r="L18">
-        <v>2900</v>
-      </c>
-      <c r="M18">
-        <v>1932</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
-      <c r="A19" s="1">
-        <v>0</v>
-      </c>
-      <c r="B19" t="s">
-        <v>94</v>
-      </c>
-      <c r="C19" t="s">
-        <v>112</v>
-      </c>
-      <c r="D19">
-        <v>2310</v>
-      </c>
-      <c r="E19">
-        <v>1505</v>
-      </c>
-      <c r="F19">
-        <v>547</v>
-      </c>
-      <c r="G19" t="s">
-        <v>90</v>
-      </c>
-      <c r="H19">
-        <v>6</v>
-      </c>
-      <c r="I19" t="s">
-        <v>93</v>
-      </c>
-      <c r="J19">
-        <v>1</v>
-      </c>
-      <c r="L19">
-        <v>2900</v>
-      </c>
-      <c r="M19">
         <v>1932</v>
       </c>
     </row>

--- a/Greyform/Python_Application/exporteddatassss(with TMP)(draft1)(tetra).xlsx
+++ b/Greyform/Python_Application/exporteddatassss(with TMP)(draft1)(tetra).xlsx
@@ -2816,7 +2816,7 @@
         <v>69</v>
       </c>
       <c r="D56">
-        <v>960</v>
+        <v>1800</v>
       </c>
       <c r="E56">
         <v>-300</v>
@@ -2854,7 +2854,7 @@
         <v>70</v>
       </c>
       <c r="D57">
-        <v>960</v>
+        <v>1800</v>
       </c>
       <c r="E57">
         <v>-300</v>
@@ -2892,7 +2892,7 @@
         <v>71</v>
       </c>
       <c r="D58">
-        <v>960</v>
+        <v>1800</v>
       </c>
       <c r="E58">
         <v>-300</v>
@@ -2930,7 +2930,7 @@
         <v>72</v>
       </c>
       <c r="D59">
-        <v>960</v>
+        <v>1800</v>
       </c>
       <c r="E59">
         <v>-300</v>
@@ -2968,7 +2968,7 @@
         <v>73</v>
       </c>
       <c r="D60">
-        <v>960</v>
+        <v>1800</v>
       </c>
       <c r="E60">
         <v>300</v>
@@ -3006,7 +3006,7 @@
         <v>74</v>
       </c>
       <c r="D61">
-        <v>960</v>
+        <v>1800</v>
       </c>
       <c r="E61">
         <v>300</v>
@@ -3044,7 +3044,7 @@
         <v>75</v>
       </c>
       <c r="D62">
-        <v>960</v>
+        <v>1800</v>
       </c>
       <c r="E62">
         <v>300</v>
@@ -3082,7 +3082,7 @@
         <v>76</v>
       </c>
       <c r="D63">
-        <v>960</v>
+        <v>1800</v>
       </c>
       <c r="E63">
         <v>300</v>

--- a/Greyform/Python_Application/exporteddatassss(with TMP)(draft1)(tetra).xlsx
+++ b/Greyform/Python_Application/exporteddatassss(with TMP)(draft1)(tetra).xlsx
@@ -1,22 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MokZhiZhuan\OneDrive - WINSYS TECHNOLOGY PTE LTD\Documents\GitHub\GreyForm_UI\Greyform\Python_Application\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F08E57D1-8ABF-4159-896E-C3AED6DFA43D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="1950" yWindow="15" windowWidth="23235" windowHeight="15465" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Stage 2" sheetId="1" r:id="rId1"/>
     <sheet name="Stage 3" sheetId="2" r:id="rId2"/>
     <sheet name="Obstacles" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="425" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="100">
   <si>
     <t>Marking type</t>
   </si>
@@ -63,43 +69,70 @@
     <t>Tile</t>
   </si>
   <si>
+    <t>TMP1S2c3:TMP1S2c3:1155203</t>
+  </si>
+  <si>
+    <t>TMP1S2d1:TMP1S2d1:1155210</t>
+  </si>
+  <si>
+    <t>TMP1S2d2:TMP1S2d2:1155209</t>
+  </si>
+  <si>
+    <t>TMP1S2d3:TMP1S2d3:1155208</t>
+  </si>
+  <si>
+    <t>TMP1S2d4:TMP1S2d4:1155207</t>
+  </si>
+  <si>
+    <t>TMP1S2c1:TMP1S2c1:1155205</t>
+  </si>
+  <si>
+    <t>TMP1S2c2:TMP1S2c2:1155204</t>
+  </si>
+  <si>
+    <t>TMP1S2e2:TMP1S2e2:1155214</t>
+  </si>
+  <si>
+    <t>TMP1S2c4:TMP1S2c4:1155202</t>
+  </si>
+  <si>
+    <t>TMP1S2b1:TMP1S2b1:1155200</t>
+  </si>
+  <si>
+    <t>TMP1S2b2:TMP1S2b2:1155199</t>
+  </si>
+  <si>
+    <t>TMP1S2b3:TMP1S2b3:1155198</t>
+  </si>
+  <si>
+    <t>TMP1S2b4:TMP1S2b4:1155197</t>
+  </si>
+  <si>
+    <t>TMP1S2a1:TMP1S2a1:1155195</t>
+  </si>
+  <si>
     <t>TMP1S2a2:TMP1S2a2:1155194</t>
   </si>
   <si>
-    <t>TMP1S2b4:TMP1S2b4:1155197</t>
-  </si>
-  <si>
-    <t>TMP1S2b3:TMP1S2b3:1155198</t>
-  </si>
-  <si>
-    <t>TMP1S2b2:TMP1S2b2:1155199</t>
-  </si>
-  <si>
-    <t>TMP1S2b1:TMP1S2b1:1155200</t>
-  </si>
-  <si>
-    <t>TMP1S2c4:TMP1S2c4:1155202</t>
-  </si>
-  <si>
-    <t>TMP1S2c3:TMP1S2c3:1155203</t>
-  </si>
-  <si>
-    <t>TMP1S2c2:TMP1S2c2:1155204</t>
-  </si>
-  <si>
-    <t>TMP1S2c1:TMP1S2c1:1155205</t>
-  </si>
-  <si>
-    <t>TMP1S2d4:TMP1S2d4:1155207</t>
-  </si>
-  <si>
-    <t>TMP1S2d3:TMP1S2d3:1155208</t>
-  </si>
-  <si>
-    <t>TMP1S2d2:TMP1S2d2:1155209</t>
-  </si>
-  <si>
-    <t>TMP1S2d1:TMP1S2d1:1155210</t>
+    <t>TMP1S2a3:TMP1S2a3:1155193</t>
+  </si>
+  <si>
+    <t>TMP1S2a4:TMP1S2a4:1155192</t>
+  </si>
+  <si>
+    <t>TMP1S2e1:TMP1S2e1:1155215</t>
+  </si>
+  <si>
+    <t>TMP1S2f4:TMP1S2f4:1155217</t>
+  </si>
+  <si>
+    <t>TMP1S2f3:TMP1S2f3:1155218</t>
+  </si>
+  <si>
+    <t>TMP1S2f2:TMP1S2f2:1155219</t>
+  </si>
+  <si>
+    <t>TMP1S2f1:TMP1S2f1:1155220</t>
   </si>
   <si>
     <t>TMP1S2e4:TMP1S2e4:1155212</t>
@@ -108,51 +141,24 @@
     <t>TMP1S2e3:TMP1S2e3:1155213</t>
   </si>
   <si>
-    <t>TMP1S2e2:TMP1S2e2:1155214</t>
-  </si>
-  <si>
-    <t>TMP1S2a1:TMP1S2a1:1155195</t>
-  </si>
-  <si>
-    <t>TMP1S2e1:TMP1S2e1:1155215</t>
-  </si>
-  <si>
-    <t>TMP1S2f4:TMP1S2f4:1155217</t>
-  </si>
-  <si>
-    <t>TMP1S2a4:TMP1S2a4:1155192</t>
-  </si>
-  <si>
-    <t>TMP1S2f3:TMP1S2f3:1155218</t>
-  </si>
-  <si>
-    <t>TMP1S2f2:TMP1S2f2:1155219</t>
-  </si>
-  <si>
-    <t>TMP1S2f1:TMP1S2f1:1155220</t>
-  </si>
-  <si>
-    <t>TMP1S2a3:TMP1S2a3:1155193</t>
+    <t>TMP2S2b2:TMP2S2b2:1155222</t>
+  </si>
+  <si>
+    <t>TMP2S2b1:TMP2S2b1:1155223</t>
+  </si>
+  <si>
+    <t>TMP2S2c1:TMP2S2c1:1156963</t>
+  </si>
+  <si>
+    <t>TMP2S2c2:TMP2S2c2:1156962</t>
+  </si>
+  <si>
+    <t>TMP2S2a2:TMP2S2a2:1155224</t>
   </si>
   <si>
     <t>TMP2S2a1:TMP2S2a1:1155225</t>
   </si>
   <si>
-    <t>TMP2S2c2:TMP2S2c2:1156962</t>
-  </si>
-  <si>
-    <t>TMP2S2b1:TMP2S2b1:1155223</t>
-  </si>
-  <si>
-    <t>TMP2S2b2:TMP2S2b2:1155222</t>
-  </si>
-  <si>
-    <t>TMP2S2a2:TMP2S2a2:1155224</t>
-  </si>
-  <si>
-    <t>TMP2S2c1:TMP2S2c1:1156963</t>
-  </si>
-  <si>
     <t>TMP3S2b3:TMP3S2b3:1155228</t>
   </si>
   <si>
@@ -162,197 +168,167 @@
     <t>TMP3S2b2:TMP3S2b2:1155230</t>
   </si>
   <si>
+    <t>TMP3S2a3:TMP3S2a3:1155232</t>
+  </si>
+  <si>
+    <t>TMP3S2a2:TMP3S2a2:1155233</t>
+  </si>
+  <si>
+    <t>TMP3S2a1:TMP3S2a1:1155234</t>
+  </si>
+  <si>
     <t>TMP3S2a4:TMP3S2a4:1155231</t>
   </si>
   <si>
-    <t>TMP3S2a3:TMP3S2a3:1155232</t>
-  </si>
-  <si>
-    <t>TMP3S2a2:TMP3S2a2:1155233</t>
-  </si>
-  <si>
-    <t>TMP3S2a1:TMP3S2a1:1155234</t>
-  </si>
-  <si>
     <t>TMP3S2b4:TMP3S2b4:1155227</t>
   </si>
   <si>
+    <t>TMP4S2a4:TMP4S2a4:1155237</t>
+  </si>
+  <si>
+    <t>TMP4S2a1:TMP4S2a1:1155243</t>
+  </si>
+  <si>
     <t>TMP4S2a3:TMP4S2a3:1155241</t>
   </si>
   <si>
-    <t>TMP4S2a4:TMP4S2a4:1155237</t>
+    <t>TMP4S2a2:TMP4S2a2:1155242</t>
+  </si>
+  <si>
+    <t>TMP5S2b1:TMP5S2b1:1155251</t>
+  </si>
+  <si>
+    <t>TMP5S2b2:TMP5S2b2:1155250</t>
+  </si>
+  <si>
+    <t>TMP5S2a2:TMP5S2a2:1155249</t>
+  </si>
+  <si>
+    <t>TMP5S2b3:TMP5S2b3:1155248</t>
+  </si>
+  <si>
+    <t>TMP5S2a3:TMP5S2a3:1155247</t>
+  </si>
+  <si>
+    <t>TMP5S2b4:TMP5S2b4:1155246</t>
+  </si>
+  <si>
+    <t>TMP5S2a4:TMP5S2a4:1155245</t>
+  </si>
+  <si>
+    <t>TMP5S2a1:TMP5S2a1:1155252</t>
+  </si>
+  <si>
+    <t>TMP4S2b2:TMP4S2b2:1155239</t>
+  </si>
+  <si>
+    <t>TMP4S2b1:TMP4S2b1:1155240</t>
   </si>
   <si>
     <t>TMP4S2b4:TMP4S2b4:1155236</t>
   </si>
   <si>
-    <t>TMP4S2b1:TMP4S2b1:1155240</t>
-  </si>
-  <si>
-    <t>TMP4S2a2:TMP4S2a2:1155242</t>
-  </si>
-  <si>
-    <t>TMP4S2a1:TMP4S2a1:1155243</t>
-  </si>
-  <si>
-    <t>TMP4S2b2:TMP4S2b2:1155239</t>
-  </si>
-  <si>
     <t>TMP4S2b3:TMP4S2b3:1155238</t>
   </si>
   <si>
-    <t>TMP5S2b4:TMP5S2b4:1155246</t>
-  </si>
-  <si>
-    <t>TMP5S2a4:TMP5S2a4:1155245</t>
-  </si>
-  <si>
-    <t>TMP5S2a2:TMP5S2a2:1155249</t>
-  </si>
-  <si>
-    <t>TMP5S2b2:TMP5S2b2:1155250</t>
-  </si>
-  <si>
-    <t>TMP5S2b1:TMP5S2b1:1155251</t>
-  </si>
-  <si>
-    <t>TMP5S2a1:TMP5S2a1:1155252</t>
-  </si>
-  <si>
-    <t>TMP5S2a3:TMP5S2a3:1155247</t>
-  </si>
-  <si>
-    <t>TMP5S2b3:TMP5S2b3:1155248</t>
-  </si>
-  <si>
     <t>TMP6S2b1:TMP6S2b1:1155262</t>
   </si>
   <si>
+    <t>TMP6S2b3:TMP6S2b3:1155260</t>
+  </si>
+  <si>
     <t>TMP6S2b2:TMP6S2b2:1155261</t>
   </si>
   <si>
-    <t>TMP6S2b3:TMP6S2b3:1155260</t>
+    <t>TMP6S2a1:TMP6S2a1:1155257</t>
+  </si>
+  <si>
+    <t>TMP6S2a2:TMP6S2a2:1155256</t>
+  </si>
+  <si>
+    <t>TMP6S2a4:TMP6S2a4:1155255</t>
+  </si>
+  <si>
+    <t>TMP6S2a3:TMP6S2a3:1155254</t>
   </si>
   <si>
     <t>TMP6S2b4:TMP6S2b4:1155259</t>
   </si>
   <si>
-    <t>TMP6S2a1:TMP6S2a1:1155257</t>
-  </si>
-  <si>
-    <t>TMP6S2a2:TMP6S2a2:1155256</t>
-  </si>
-  <si>
-    <t>TMP6S2a4:TMP6S2a4:1155255</t>
-  </si>
-  <si>
-    <t>TMP6S2a3:TMP6S2a3:1155254</t>
+    <t>TMP7S2c1:TMP7S2c1:1155276</t>
   </si>
   <si>
     <t>TMP7S2c2:TMP7S2c2:1155275</t>
   </si>
   <si>
+    <t>TMP7S2c3:TMP7S2c3:1155274</t>
+  </si>
+  <si>
+    <t>TMP7S2d3:TMP7S2d3:1155273</t>
+  </si>
+  <si>
+    <t>TMP7S2d2:TMP7S2d2:1155272</t>
+  </si>
+  <si>
+    <t>TMP7S2a1:TMP7S2a1:1155269</t>
+  </si>
+  <si>
+    <t>TMP7S2a2:TMP7S2a2:1155268</t>
+  </si>
+  <si>
     <t>TMP7S2a3:TMP7S2a3:1155267</t>
   </si>
   <si>
-    <t>TMP7S2c3:TMP7S2c3:1155274</t>
-  </si>
-  <si>
-    <t>TMP7S2d3:TMP7S2d3:1155273</t>
-  </si>
-  <si>
-    <t>TMP7S2d2:TMP7S2d2:1155272</t>
+    <t>TMP7S2b1:TMP7S2b1:1155266</t>
+  </si>
+  <si>
+    <t>TMP7S2b3:TMP7S2b3:1155264</t>
   </si>
   <si>
     <t>TMP7S2d1:TMP7S2d1:1155271</t>
   </si>
   <si>
-    <t>TMP7S2a1:TMP7S2a1:1155269</t>
-  </si>
-  <si>
-    <t>TMP7S2a2:TMP7S2a2:1155268</t>
-  </si>
-  <si>
-    <t>TMP7S2c1:TMP7S2c1:1155276</t>
-  </si>
-  <si>
-    <t>TMP7S2b1:TMP7S2b1:1155266</t>
-  </si>
-  <si>
-    <t>TMP7S2b3:TMP7S2b3:1155264</t>
-  </si>
-  <si>
     <t>TMP7S2b2:TMP7S2b2:1155265</t>
   </si>
   <si>
     <t>F</t>
   </si>
   <si>
-    <t>+</t>
-  </si>
-  <si>
     <t>blank</t>
   </si>
   <si>
     <t>Fitting</t>
   </si>
   <si>
+    <t>BSS.HAND SHOWER SET.MASTER BATH:BSS.HAND SHOWER SET.MASTER BATH:1091130</t>
+  </si>
+  <si>
     <t>BSS.GESSI.SM.49079:29046000:1090989</t>
   </si>
   <si>
-    <t>BSS.HAND SHOWER SET.MASTER BATH:BSS.HAND SHOWER SET.MASTER BATH:1091130</t>
-  </si>
-  <si>
-    <t>BSS.GOMGO.PH.GG-6106:Chrome 000:1090992</t>
-  </si>
-  <si>
-    <t>BSS.Vesbo Tee Fiting:Standard:1035758</t>
+    <t>BSS.LAUFEN.WC.820714:820959000 White:1091064</t>
+  </si>
+  <si>
+    <t>BSS.TECE.AP.9240402:Flush Plate:1091024</t>
+  </si>
+  <si>
+    <t>BSS.GESSI,BM.49001:Default:1090988</t>
+  </si>
+  <si>
+    <t>BSS.Bottle Trap:BSS.Bottle trap:1018126</t>
   </si>
   <si>
     <t>BSS.MIRROR CABINET.C5-MASTER BATH:BSS.MIRROR CABINET.C5-MASTER BATH:1090945</t>
   </si>
   <si>
-    <t>BSS.LAUFEN.WC.820714:820959000 White:1091064</t>
-  </si>
-  <si>
-    <t>BSS.Shallow_FT:150 x 150MM:1018227</t>
-  </si>
-  <si>
-    <t>BSS.Vesbo Tee Fiting:Standard:1032950</t>
-  </si>
-  <si>
-    <t>BSS.Vesbo Tee Fiting:Standard:1033022</t>
-  </si>
-  <si>
-    <t>BSS.Shallow_FW:BSS.Shallow_FW:1038276</t>
-  </si>
-  <si>
-    <t>BSS.Vesbo Tee Fiting:Standard:1042747</t>
-  </si>
-  <si>
     <t>BSS.MONIC.BIB TAP.T-4L:BIB TAP:1090961</t>
-  </si>
-  <si>
-    <t>BSS.GESSI,BM.49001:Default:1090988</t>
-  </si>
-  <si>
-    <t>BSS.GOMGO.TR.GG-6108-600:Chrome 000:1090991</t>
-  </si>
-  <si>
-    <t>BSS.TECE.AP.9240402:Flush Plate:1091024</t>
-  </si>
-  <si>
-    <t>BSS.Bottle Trap:BSS.Bottle trap:1018126</t>
-  </si>
-  <si>
-    <t>6</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -415,13 +391,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -459,7 +443,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -493,6 +477,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -527,9 +512,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -702,14 +688,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O75"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView topLeftCell="A64" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="27.7109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -753,9 +742,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>167</v>
+        <v>174</v>
       </c>
       <c r="B2" t="s">
         <v>14</v>
@@ -767,10 +756,10 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>1350</v>
+        <v>30</v>
       </c>
       <c r="F2">
-        <v>425</v>
+        <v>-175</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -779,7 +768,7 @@
         <v>1</v>
       </c>
       <c r="I2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J2">
         <v>1</v>
@@ -791,9 +780,9 @@
         <v>2655</v>
       </c>
     </row>
-    <row r="3" spans="1:15">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>169</v>
+        <v>180</v>
       </c>
       <c r="B3" t="s">
         <v>14</v>
@@ -805,10 +794,10 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>350</v>
+        <v>-470</v>
       </c>
       <c r="F3">
-        <v>-775</v>
+        <v>1025</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -817,7 +806,7 @@
         <v>1</v>
       </c>
       <c r="I3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J3">
         <v>1</v>
@@ -829,9 +818,9 @@
         <v>2655</v>
       </c>
     </row>
-    <row r="4" spans="1:15">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>170</v>
+        <v>179</v>
       </c>
       <c r="B4" t="s">
         <v>14</v>
@@ -843,10 +832,10 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>350</v>
+        <v>-470</v>
       </c>
       <c r="F4">
-        <v>-175</v>
+        <v>425</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -855,7 +844,7 @@
         <v>1</v>
       </c>
       <c r="I4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J4">
         <v>1</v>
@@ -867,9 +856,9 @@
         <v>2655</v>
       </c>
     </row>
-    <row r="5" spans="1:15">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="B5" t="s">
         <v>14</v>
@@ -881,10 +870,10 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>350</v>
+        <v>-470</v>
       </c>
       <c r="F5">
-        <v>425</v>
+        <v>-175</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -893,7 +882,7 @@
         <v>1</v>
       </c>
       <c r="I5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J5">
         <v>1</v>
@@ -905,9 +894,9 @@
         <v>2655</v>
       </c>
     </row>
-    <row r="6" spans="1:15">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="B6" t="s">
         <v>14</v>
@@ -919,10 +908,10 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>350</v>
+        <v>-470</v>
       </c>
       <c r="F6">
-        <v>1025</v>
+        <v>-775</v>
       </c>
       <c r="G6">
         <v>1</v>
@@ -931,7 +920,7 @@
         <v>1</v>
       </c>
       <c r="I6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J6">
         <v>1</v>
@@ -943,9 +932,9 @@
         <v>2655</v>
       </c>
     </row>
-    <row r="7" spans="1:15">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="B7" t="s">
         <v>14</v>
@@ -960,7 +949,7 @@
         <v>30</v>
       </c>
       <c r="F7">
-        <v>-775</v>
+        <v>1025</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -969,7 +958,7 @@
         <v>1</v>
       </c>
       <c r="I7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J7">
         <v>1</v>
@@ -981,9 +970,9 @@
         <v>2655</v>
       </c>
     </row>
-    <row r="8" spans="1:15">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B8" t="s">
         <v>14</v>
@@ -998,7 +987,7 @@
         <v>30</v>
       </c>
       <c r="F8">
-        <v>-175</v>
+        <v>425</v>
       </c>
       <c r="G8">
         <v>1</v>
@@ -1007,7 +996,7 @@
         <v>1</v>
       </c>
       <c r="I8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J8">
         <v>1</v>
@@ -1019,9 +1008,9 @@
         <v>2655</v>
       </c>
     </row>
-    <row r="9" spans="1:15">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <v>175</v>
+        <v>183</v>
       </c>
       <c r="B9" t="s">
         <v>14</v>
@@ -1033,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>30</v>
+        <v>-490</v>
       </c>
       <c r="F9">
         <v>425</v>
@@ -1045,7 +1034,7 @@
         <v>1</v>
       </c>
       <c r="I9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J9">
         <v>1</v>
@@ -1057,9 +1046,9 @@
         <v>2655</v>
       </c>
     </row>
-    <row r="10" spans="1:15">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="B10" t="s">
         <v>14</v>
@@ -1074,7 +1063,7 @@
         <v>30</v>
       </c>
       <c r="F10">
-        <v>1025</v>
+        <v>-775</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -1083,7 +1072,7 @@
         <v>1</v>
       </c>
       <c r="I10" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J10">
         <v>1</v>
@@ -1095,9 +1084,9 @@
         <v>2655</v>
       </c>
     </row>
-    <row r="11" spans="1:15">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="B11" t="s">
         <v>14</v>
@@ -1109,10 +1098,10 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>-470</v>
+        <v>350</v>
       </c>
       <c r="F11">
-        <v>-775</v>
+        <v>1025</v>
       </c>
       <c r="G11">
         <v>1</v>
@@ -1121,7 +1110,7 @@
         <v>1</v>
       </c>
       <c r="I11" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J11">
         <v>1</v>
@@ -1133,9 +1122,9 @@
         <v>2655</v>
       </c>
     </row>
-    <row r="12" spans="1:15">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="B12" t="s">
         <v>14</v>
@@ -1147,10 +1136,10 @@
         <v>0</v>
       </c>
       <c r="E12">
-        <v>-470</v>
+        <v>350</v>
       </c>
       <c r="F12">
-        <v>-175</v>
+        <v>425</v>
       </c>
       <c r="G12">
         <v>1</v>
@@ -1159,7 +1148,7 @@
         <v>1</v>
       </c>
       <c r="I12" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J12">
         <v>1</v>
@@ -1171,9 +1160,9 @@
         <v>2655</v>
       </c>
     </row>
-    <row r="13" spans="1:15">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
-        <v>179</v>
+        <v>170</v>
       </c>
       <c r="B13" t="s">
         <v>14</v>
@@ -1185,10 +1174,10 @@
         <v>0</v>
       </c>
       <c r="E13">
-        <v>-470</v>
+        <v>350</v>
       </c>
       <c r="F13">
-        <v>425</v>
+        <v>-175</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -1197,7 +1186,7 @@
         <v>1</v>
       </c>
       <c r="I13" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J13">
         <v>1</v>
@@ -1209,9 +1198,9 @@
         <v>2655</v>
       </c>
     </row>
-    <row r="14" spans="1:15">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
-        <v>180</v>
+        <v>169</v>
       </c>
       <c r="B14" t="s">
         <v>14</v>
@@ -1223,10 +1212,10 @@
         <v>0</v>
       </c>
       <c r="E14">
-        <v>-470</v>
+        <v>350</v>
       </c>
       <c r="F14">
-        <v>1025</v>
+        <v>-775</v>
       </c>
       <c r="G14">
         <v>1</v>
@@ -1235,7 +1224,7 @@
         <v>1</v>
       </c>
       <c r="I14" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J14">
         <v>1</v>
@@ -1247,9 +1236,9 @@
         <v>2655</v>
       </c>
     </row>
-    <row r="15" spans="1:15">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
-        <v>181</v>
+        <v>168</v>
       </c>
       <c r="B15" t="s">
         <v>14</v>
@@ -1261,7 +1250,7 @@
         <v>0</v>
       </c>
       <c r="E15">
-        <v>-490</v>
+        <v>1350</v>
       </c>
       <c r="F15">
         <v>1025</v>
@@ -1273,7 +1262,7 @@
         <v>1</v>
       </c>
       <c r="I15" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J15">
         <v>1</v>
@@ -1285,9 +1274,9 @@
         <v>2655</v>
       </c>
     </row>
-    <row r="16" spans="1:15">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
-        <v>182</v>
+        <v>167</v>
       </c>
       <c r="B16" t="s">
         <v>14</v>
@@ -1299,10 +1288,10 @@
         <v>0</v>
       </c>
       <c r="E16">
-        <v>-490</v>
+        <v>1350</v>
       </c>
       <c r="F16">
-        <v>-175</v>
+        <v>425</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -1311,7 +1300,7 @@
         <v>1</v>
       </c>
       <c r="I16" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J16">
         <v>1</v>
@@ -1323,9 +1312,9 @@
         <v>2655</v>
       </c>
     </row>
-    <row r="17" spans="1:13">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
-        <v>183</v>
+        <v>166</v>
       </c>
       <c r="B17" t="s">
         <v>14</v>
@@ -1337,10 +1326,10 @@
         <v>0</v>
       </c>
       <c r="E17">
-        <v>-490</v>
+        <v>1350</v>
       </c>
       <c r="F17">
-        <v>425</v>
+        <v>-175</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -1349,7 +1338,7 @@
         <v>1</v>
       </c>
       <c r="I17" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J17">
         <v>1</v>
@@ -1361,9 +1350,9 @@
         <v>2655</v>
       </c>
     </row>
-    <row r="18" spans="1:13">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="B18" t="s">
         <v>14</v>
@@ -1378,7 +1367,7 @@
         <v>1350</v>
       </c>
       <c r="F18">
-        <v>1025</v>
+        <v>-775</v>
       </c>
       <c r="G18">
         <v>1</v>
@@ -1387,7 +1376,7 @@
         <v>1</v>
       </c>
       <c r="I18" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J18">
         <v>1</v>
@@ -1399,7 +1388,7 @@
         <v>2655</v>
       </c>
     </row>
-    <row r="19" spans="1:13">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>184</v>
       </c>
@@ -1425,7 +1414,7 @@
         <v>1</v>
       </c>
       <c r="I19" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J19">
         <v>1</v>
@@ -1437,7 +1426,7 @@
         <v>2655</v>
       </c>
     </row>
-    <row r="20" spans="1:13">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>185</v>
       </c>
@@ -1463,7 +1452,7 @@
         <v>1</v>
       </c>
       <c r="I20" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J20">
         <v>1</v>
@@ -1475,9 +1464,9 @@
         <v>2655</v>
       </c>
     </row>
-    <row r="21" spans="1:13">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
-        <v>165</v>
+        <v>186</v>
       </c>
       <c r="B21" t="s">
         <v>14</v>
@@ -1489,10 +1478,10 @@
         <v>0</v>
       </c>
       <c r="E21">
-        <v>1350</v>
+        <v>-935</v>
       </c>
       <c r="F21">
-        <v>-775</v>
+        <v>-175</v>
       </c>
       <c r="G21">
         <v>1</v>
@@ -1501,7 +1490,7 @@
         <v>1</v>
       </c>
       <c r="I21" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J21">
         <v>1</v>
@@ -1513,9 +1502,9 @@
         <v>2655</v>
       </c>
     </row>
-    <row r="22" spans="1:13">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B22" t="s">
         <v>14</v>
@@ -1530,7 +1519,7 @@
         <v>-935</v>
       </c>
       <c r="F22">
-        <v>-175</v>
+        <v>425</v>
       </c>
       <c r="G22">
         <v>1</v>
@@ -1539,7 +1528,7 @@
         <v>1</v>
       </c>
       <c r="I22" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J22">
         <v>1</v>
@@ -1551,9 +1540,9 @@
         <v>2655</v>
       </c>
     </row>
-    <row r="23" spans="1:13">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B23" t="s">
         <v>14</v>
@@ -1568,7 +1557,7 @@
         <v>-935</v>
       </c>
       <c r="F23">
-        <v>425</v>
+        <v>1025</v>
       </c>
       <c r="G23">
         <v>1</v>
@@ -1577,7 +1566,7 @@
         <v>1</v>
       </c>
       <c r="I23" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J23">
         <v>1</v>
@@ -1589,9 +1578,9 @@
         <v>2655</v>
       </c>
     </row>
-    <row r="24" spans="1:13">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="B24" t="s">
         <v>14</v>
@@ -1603,7 +1592,7 @@
         <v>0</v>
       </c>
       <c r="E24">
-        <v>-935</v>
+        <v>-490</v>
       </c>
       <c r="F24">
         <v>1025</v>
@@ -1615,7 +1604,7 @@
         <v>1</v>
       </c>
       <c r="I24" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J24">
         <v>1</v>
@@ -1627,9 +1616,9 @@
         <v>2655</v>
       </c>
     </row>
-    <row r="25" spans="1:13">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
-        <v>166</v>
+        <v>182</v>
       </c>
       <c r="B25" t="s">
         <v>14</v>
@@ -1641,7 +1630,7 @@
         <v>0</v>
       </c>
       <c r="E25">
-        <v>1350</v>
+        <v>-490</v>
       </c>
       <c r="F25">
         <v>-175</v>
@@ -1653,7 +1642,7 @@
         <v>1</v>
       </c>
       <c r="I25" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J25">
         <v>1</v>
@@ -1665,9 +1654,9 @@
         <v>2655</v>
       </c>
     </row>
-    <row r="26" spans="1:13">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="B26" t="s">
         <v>14</v>
@@ -1679,10 +1668,10 @@
         <v>-2760</v>
       </c>
       <c r="E26">
-        <v>-500</v>
+        <v>100</v>
       </c>
       <c r="F26">
-        <v>-175</v>
+        <v>-775</v>
       </c>
       <c r="G26">
         <v>2</v>
@@ -1691,7 +1680,7 @@
         <v>1</v>
       </c>
       <c r="I26" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J26">
         <v>1</v>
@@ -1703,9 +1692,9 @@
         <v>2655</v>
       </c>
     </row>
-    <row r="27" spans="1:13">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
-        <v>237</v>
+        <v>190</v>
       </c>
       <c r="B27" t="s">
         <v>14</v>
@@ -1717,10 +1706,10 @@
         <v>-2760</v>
       </c>
       <c r="E27">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="F27">
-        <v>425</v>
+        <v>-175</v>
       </c>
       <c r="G27">
         <v>2</v>
@@ -1729,7 +1718,7 @@
         <v>1</v>
       </c>
       <c r="I27" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J27">
         <v>1</v>
@@ -1741,9 +1730,9 @@
         <v>2655</v>
       </c>
     </row>
-    <row r="28" spans="1:13">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
-        <v>190</v>
+        <v>238</v>
       </c>
       <c r="B28" t="s">
         <v>14</v>
@@ -1755,10 +1744,10 @@
         <v>-2760</v>
       </c>
       <c r="E28">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="F28">
-        <v>-175</v>
+        <v>1025</v>
       </c>
       <c r="G28">
         <v>2</v>
@@ -1767,7 +1756,7 @@
         <v>1</v>
       </c>
       <c r="I28" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J28">
         <v>1</v>
@@ -1779,9 +1768,9 @@
         <v>2655</v>
       </c>
     </row>
-    <row r="29" spans="1:13">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
-        <v>189</v>
+        <v>237</v>
       </c>
       <c r="B29" t="s">
         <v>14</v>
@@ -1793,10 +1782,10 @@
         <v>-2760</v>
       </c>
       <c r="E29">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="F29">
-        <v>-775</v>
+        <v>425</v>
       </c>
       <c r="G29">
         <v>2</v>
@@ -1805,7 +1794,7 @@
         <v>1</v>
       </c>
       <c r="I29" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J29">
         <v>1</v>
@@ -1817,7 +1806,7 @@
         <v>2655</v>
       </c>
     </row>
-    <row r="30" spans="1:13">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>191</v>
       </c>
@@ -1843,7 +1832,7 @@
         <v>1</v>
       </c>
       <c r="I30" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J30">
         <v>1</v>
@@ -1855,9 +1844,9 @@
         <v>2655</v>
       </c>
     </row>
-    <row r="31" spans="1:13">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
-        <v>238</v>
+        <v>192</v>
       </c>
       <c r="B31" t="s">
         <v>14</v>
@@ -1869,10 +1858,10 @@
         <v>-2760</v>
       </c>
       <c r="E31">
-        <v>150</v>
+        <v>-500</v>
       </c>
       <c r="F31">
-        <v>1025</v>
+        <v>-175</v>
       </c>
       <c r="G31">
         <v>2</v>
@@ -1881,7 +1870,7 @@
         <v>1</v>
       </c>
       <c r="I31" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J31">
         <v>1</v>
@@ -1893,7 +1882,7 @@
         <v>2655</v>
       </c>
     </row>
-    <row r="32" spans="1:13">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>194</v>
       </c>
@@ -1907,7 +1896,7 @@
         <v>1200</v>
       </c>
       <c r="E32">
-        <v>-445</v>
+        <v>445</v>
       </c>
       <c r="F32">
         <v>-175</v>
@@ -1919,7 +1908,7 @@
         <v>1</v>
       </c>
       <c r="I32" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J32">
         <v>1</v>
@@ -1931,7 +1920,7 @@
         <v>2655</v>
       </c>
     </row>
-    <row r="33" spans="1:13">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>195</v>
       </c>
@@ -1945,7 +1934,7 @@
         <v>1200</v>
       </c>
       <c r="E33">
-        <v>-445</v>
+        <v>445</v>
       </c>
       <c r="F33">
         <v>1025</v>
@@ -1957,7 +1946,7 @@
         <v>1</v>
       </c>
       <c r="I33" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J33">
         <v>1</v>
@@ -1969,7 +1958,7 @@
         <v>2655</v>
       </c>
     </row>
-    <row r="34" spans="1:13">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>196</v>
       </c>
@@ -1983,7 +1972,7 @@
         <v>1200</v>
       </c>
       <c r="E34">
-        <v>-445</v>
+        <v>445</v>
       </c>
       <c r="F34">
         <v>425</v>
@@ -1995,7 +1984,7 @@
         <v>1</v>
       </c>
       <c r="I34" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J34">
         <v>1</v>
@@ -2007,9 +1996,9 @@
         <v>2655</v>
       </c>
     </row>
-    <row r="35" spans="1:13">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B35" t="s">
         <v>14</v>
@@ -2024,7 +2013,7 @@
         <v>0</v>
       </c>
       <c r="F35">
-        <v>1025</v>
+        <v>-175</v>
       </c>
       <c r="G35">
         <v>3</v>
@@ -2033,7 +2022,7 @@
         <v>1</v>
       </c>
       <c r="I35" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J35">
         <v>1</v>
@@ -2045,9 +2034,9 @@
         <v>2655</v>
       </c>
     </row>
-    <row r="36" spans="1:13">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B36" t="s">
         <v>14</v>
@@ -2062,7 +2051,7 @@
         <v>0</v>
       </c>
       <c r="F36">
-        <v>-175</v>
+        <v>425</v>
       </c>
       <c r="G36">
         <v>3</v>
@@ -2071,7 +2060,7 @@
         <v>1</v>
       </c>
       <c r="I36" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J36">
         <v>1</v>
@@ -2083,9 +2072,9 @@
         <v>2655</v>
       </c>
     </row>
-    <row r="37" spans="1:13">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B37" t="s">
         <v>14</v>
@@ -2100,7 +2089,7 @@
         <v>0</v>
       </c>
       <c r="F37">
-        <v>425</v>
+        <v>1025</v>
       </c>
       <c r="G37">
         <v>3</v>
@@ -2109,7 +2098,7 @@
         <v>1</v>
       </c>
       <c r="I37" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J37">
         <v>1</v>
@@ -2121,9 +2110,9 @@
         <v>2655</v>
       </c>
     </row>
-    <row r="38" spans="1:13">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="B38" t="s">
         <v>14</v>
@@ -2147,7 +2136,7 @@
         <v>1</v>
       </c>
       <c r="I38" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J38">
         <v>1</v>
@@ -2159,7 +2148,7 @@
         <v>2655</v>
       </c>
     </row>
-    <row r="39" spans="1:13">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>193</v>
       </c>
@@ -2173,7 +2162,7 @@
         <v>1200</v>
       </c>
       <c r="E39">
-        <v>-445</v>
+        <v>445</v>
       </c>
       <c r="F39">
         <v>-775</v>
@@ -2185,7 +2174,7 @@
         <v>1</v>
       </c>
       <c r="I39" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J39">
         <v>1</v>
@@ -2197,9 +2186,9 @@
         <v>2655</v>
       </c>
     </row>
-    <row r="40" spans="1:13">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="B40" t="s">
         <v>14</v>
@@ -2211,10 +2200,10 @@
         <v>960</v>
       </c>
       <c r="E40">
-        <v>300</v>
+        <v>-300</v>
       </c>
       <c r="F40">
-        <v>-175</v>
+        <v>-775</v>
       </c>
       <c r="G40">
         <v>4</v>
@@ -2223,7 +2212,7 @@
         <v>1</v>
       </c>
       <c r="I40" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J40">
         <v>1</v>
@@ -2235,9 +2224,9 @@
         <v>2655</v>
       </c>
     </row>
-    <row r="41" spans="1:13">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="B41" t="s">
         <v>14</v>
@@ -2249,10 +2238,10 @@
         <v>960</v>
       </c>
       <c r="E41">
-        <v>300</v>
+        <v>-300</v>
       </c>
       <c r="F41">
-        <v>-775</v>
+        <v>1025</v>
       </c>
       <c r="G41">
         <v>4</v>
@@ -2261,7 +2250,7 @@
         <v>1</v>
       </c>
       <c r="I41" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J41">
         <v>1</v>
@@ -2273,9 +2262,9 @@
         <v>2655</v>
       </c>
     </row>
-    <row r="42" spans="1:13">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="B42" t="s">
         <v>14</v>
@@ -2287,10 +2276,10 @@
         <v>960</v>
       </c>
       <c r="E42">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="F42">
-        <v>-775</v>
+        <v>-175</v>
       </c>
       <c r="G42">
         <v>4</v>
@@ -2299,7 +2288,7 @@
         <v>1</v>
       </c>
       <c r="I42" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J42">
         <v>1</v>
@@ -2311,9 +2300,9 @@
         <v>2655</v>
       </c>
     </row>
-    <row r="43" spans="1:13">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="B43" t="s">
         <v>14</v>
@@ -2325,10 +2314,10 @@
         <v>960</v>
       </c>
       <c r="E43">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="F43">
-        <v>1025</v>
+        <v>425</v>
       </c>
       <c r="G43">
         <v>4</v>
@@ -2337,7 +2326,7 @@
         <v>1</v>
       </c>
       <c r="I43" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J43">
         <v>1</v>
@@ -2349,9 +2338,9 @@
         <v>2655</v>
       </c>
     </row>
-    <row r="44" spans="1:13">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
-        <v>207</v>
+        <v>215</v>
       </c>
       <c r="B44" t="s">
         <v>14</v>
@@ -2360,36 +2349,36 @@
         <v>57</v>
       </c>
       <c r="D44">
-        <v>960</v>
+        <v>600</v>
       </c>
       <c r="E44">
-        <v>300</v>
+        <v>750</v>
       </c>
       <c r="F44">
-        <v>425</v>
+        <v>-25</v>
       </c>
       <c r="G44">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H44">
         <v>1</v>
       </c>
       <c r="I44" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J44">
         <v>1</v>
       </c>
       <c r="L44">
-        <v>592</v>
+        <v>1940</v>
       </c>
       <c r="M44">
         <v>2655</v>
       </c>
     </row>
-    <row r="45" spans="1:13">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="B45" t="s">
         <v>14</v>
@@ -2398,36 +2387,36 @@
         <v>58</v>
       </c>
       <c r="D45">
-        <v>960</v>
+        <v>600</v>
       </c>
       <c r="E45">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="F45">
-        <v>1025</v>
+        <v>-25</v>
       </c>
       <c r="G45">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H45">
         <v>1</v>
       </c>
       <c r="I45" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J45">
         <v>1</v>
       </c>
       <c r="L45">
-        <v>592</v>
+        <v>1940</v>
       </c>
       <c r="M45">
         <v>2655</v>
       </c>
     </row>
-    <row r="46" spans="1:13">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
-        <v>204</v>
+        <v>213</v>
       </c>
       <c r="B46" t="s">
         <v>14</v>
@@ -2436,36 +2425,36 @@
         <v>59</v>
       </c>
       <c r="D46">
-        <v>960</v>
+        <v>600</v>
       </c>
       <c r="E46">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="F46">
-        <v>425</v>
+        <v>-775</v>
       </c>
       <c r="G46">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H46">
         <v>1</v>
       </c>
       <c r="I46" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J46">
         <v>1</v>
       </c>
       <c r="L46">
-        <v>592</v>
+        <v>1940</v>
       </c>
       <c r="M46">
         <v>2655</v>
       </c>
     </row>
-    <row r="47" spans="1:13">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
-        <v>203</v>
+        <v>212</v>
       </c>
       <c r="B47" t="s">
         <v>14</v>
@@ -2474,36 +2463,36 @@
         <v>60</v>
       </c>
       <c r="D47">
-        <v>960</v>
+        <v>600</v>
       </c>
       <c r="E47">
-        <v>0</v>
+        <v>-450</v>
       </c>
       <c r="F47">
-        <v>-175</v>
+        <v>-25</v>
       </c>
       <c r="G47">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H47">
         <v>1</v>
       </c>
       <c r="I47" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J47">
         <v>1</v>
       </c>
       <c r="L47">
-        <v>592</v>
+        <v>1940</v>
       </c>
       <c r="M47">
         <v>2655</v>
       </c>
     </row>
-    <row r="48" spans="1:13">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B48" t="s">
         <v>14</v>
@@ -2515,10 +2504,10 @@
         <v>600</v>
       </c>
       <c r="E48">
-        <v>900</v>
+        <v>-450</v>
       </c>
       <c r="F48">
-        <v>-25</v>
+        <v>-775</v>
       </c>
       <c r="G48">
         <v>5</v>
@@ -2527,7 +2516,7 @@
         <v>1</v>
       </c>
       <c r="I48" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J48">
         <v>1</v>
@@ -2539,9 +2528,9 @@
         <v>2655</v>
       </c>
     </row>
-    <row r="49" spans="1:13">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B49" t="s">
         <v>14</v>
@@ -2553,10 +2542,10 @@
         <v>600</v>
       </c>
       <c r="E49">
-        <v>900</v>
+        <v>-900</v>
       </c>
       <c r="F49">
-        <v>-775</v>
+        <v>-25</v>
       </c>
       <c r="G49">
         <v>5</v>
@@ -2565,7 +2554,7 @@
         <v>1</v>
       </c>
       <c r="I49" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J49">
         <v>1</v>
@@ -2577,9 +2566,9 @@
         <v>2655</v>
       </c>
     </row>
-    <row r="50" spans="1:13">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="B50" t="s">
         <v>14</v>
@@ -2591,7 +2580,7 @@
         <v>600</v>
       </c>
       <c r="E50">
-        <v>-150</v>
+        <v>-900</v>
       </c>
       <c r="F50">
         <v>-775</v>
@@ -2603,7 +2592,7 @@
         <v>1</v>
       </c>
       <c r="I50" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J50">
         <v>1</v>
@@ -2615,9 +2604,9 @@
         <v>2655</v>
       </c>
     </row>
-    <row r="51" spans="1:13">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="B51" t="s">
         <v>14</v>
@@ -2629,10 +2618,10 @@
         <v>600</v>
       </c>
       <c r="E51">
-        <v>-150</v>
+        <v>750</v>
       </c>
       <c r="F51">
-        <v>-25</v>
+        <v>-775</v>
       </c>
       <c r="G51">
         <v>5</v>
@@ -2641,7 +2630,7 @@
         <v>1</v>
       </c>
       <c r="I51" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J51">
         <v>1</v>
@@ -2653,9 +2642,9 @@
         <v>2655</v>
       </c>
     </row>
-    <row r="52" spans="1:13">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
-        <v>215</v>
+        <v>204</v>
       </c>
       <c r="B52" t="s">
         <v>14</v>
@@ -2664,13 +2653,13 @@
         <v>65</v>
       </c>
       <c r="D52">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="E52">
-        <v>-750</v>
+        <v>-900</v>
       </c>
       <c r="F52">
-        <v>-25</v>
+        <v>425</v>
       </c>
       <c r="G52">
         <v>5</v>
@@ -2679,7 +2668,7 @@
         <v>1</v>
       </c>
       <c r="I52" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J52">
         <v>1</v>
@@ -2691,9 +2680,9 @@
         <v>2655</v>
       </c>
     </row>
-    <row r="53" spans="1:13">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
-        <v>216</v>
+        <v>205</v>
       </c>
       <c r="B53" t="s">
         <v>14</v>
@@ -2702,13 +2691,13 @@
         <v>66</v>
       </c>
       <c r="D53">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="E53">
-        <v>-750</v>
+        <v>-900</v>
       </c>
       <c r="F53">
-        <v>-775</v>
+        <v>1025</v>
       </c>
       <c r="G53">
         <v>5</v>
@@ -2717,7 +2706,7 @@
         <v>1</v>
       </c>
       <c r="I53" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J53">
         <v>1</v>
@@ -2729,9 +2718,9 @@
         <v>2655</v>
       </c>
     </row>
-    <row r="54" spans="1:13">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
-        <v>211</v>
+        <v>201</v>
       </c>
       <c r="B54" t="s">
         <v>14</v>
@@ -2740,10 +2729,10 @@
         <v>67</v>
       </c>
       <c r="D54">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="E54">
-        <v>450</v>
+        <v>-900</v>
       </c>
       <c r="F54">
         <v>-775</v>
@@ -2755,7 +2744,7 @@
         <v>1</v>
       </c>
       <c r="I54" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J54">
         <v>1</v>
@@ -2767,9 +2756,9 @@
         <v>2655</v>
       </c>
     </row>
-    <row r="55" spans="1:13">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
-        <v>212</v>
+        <v>203</v>
       </c>
       <c r="B55" t="s">
         <v>14</v>
@@ -2778,13 +2767,13 @@
         <v>68</v>
       </c>
       <c r="D55">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="E55">
-        <v>450</v>
+        <v>-900</v>
       </c>
       <c r="F55">
-        <v>-25</v>
+        <v>-175</v>
       </c>
       <c r="G55">
         <v>5</v>
@@ -2793,7 +2782,7 @@
         <v>1</v>
       </c>
       <c r="I55" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J55">
         <v>1</v>
@@ -2805,7 +2794,7 @@
         <v>2655</v>
       </c>
     </row>
-    <row r="56" spans="1:13">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>224</v>
       </c>
@@ -2819,7 +2808,7 @@
         <v>1800</v>
       </c>
       <c r="E56">
-        <v>-300</v>
+        <v>300</v>
       </c>
       <c r="F56">
         <v>1050</v>
@@ -2831,7 +2820,7 @@
         <v>1</v>
       </c>
       <c r="I56" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J56">
         <v>1</v>
@@ -2843,9 +2832,9 @@
         <v>2655</v>
       </c>
     </row>
-    <row r="57" spans="1:13">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B57" t="s">
         <v>14</v>
@@ -2857,10 +2846,10 @@
         <v>1800</v>
       </c>
       <c r="E57">
-        <v>-300</v>
+        <v>300</v>
       </c>
       <c r="F57">
-        <v>450</v>
+        <v>-150</v>
       </c>
       <c r="G57">
         <v>6</v>
@@ -2869,7 +2858,7 @@
         <v>1</v>
       </c>
       <c r="I57" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J57">
         <v>1</v>
@@ -2881,9 +2870,9 @@
         <v>2655</v>
       </c>
     </row>
-    <row r="58" spans="1:13">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B58" t="s">
         <v>14</v>
@@ -2895,10 +2884,10 @@
         <v>1800</v>
       </c>
       <c r="E58">
-        <v>-300</v>
+        <v>300</v>
       </c>
       <c r="F58">
-        <v>-150</v>
+        <v>450</v>
       </c>
       <c r="G58">
         <v>6</v>
@@ -2907,7 +2896,7 @@
         <v>1</v>
       </c>
       <c r="I58" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J58">
         <v>1</v>
@@ -2919,9 +2908,9 @@
         <v>2655</v>
       </c>
     </row>
-    <row r="59" spans="1:13">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B59" t="s">
         <v>14</v>
@@ -2936,7 +2925,7 @@
         <v>-300</v>
       </c>
       <c r="F59">
-        <v>-750</v>
+        <v>1050</v>
       </c>
       <c r="G59">
         <v>6</v>
@@ -2945,7 +2934,7 @@
         <v>1</v>
       </c>
       <c r="I59" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J59">
         <v>1</v>
@@ -2957,9 +2946,9 @@
         <v>2655</v>
       </c>
     </row>
-    <row r="60" spans="1:13">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B60" t="s">
         <v>14</v>
@@ -2971,10 +2960,10 @@
         <v>1800</v>
       </c>
       <c r="E60">
-        <v>300</v>
+        <v>-300</v>
       </c>
       <c r="F60">
-        <v>1050</v>
+        <v>450</v>
       </c>
       <c r="G60">
         <v>6</v>
@@ -2983,7 +2972,7 @@
         <v>1</v>
       </c>
       <c r="I60" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J60">
         <v>1</v>
@@ -2995,9 +2984,9 @@
         <v>2655</v>
       </c>
     </row>
-    <row r="61" spans="1:13">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B61" t="s">
         <v>14</v>
@@ -3009,10 +2998,10 @@
         <v>1800</v>
       </c>
       <c r="E61">
-        <v>300</v>
+        <v>-300</v>
       </c>
       <c r="F61">
-        <v>450</v>
+        <v>-150</v>
       </c>
       <c r="G61">
         <v>6</v>
@@ -3021,7 +3010,7 @@
         <v>1</v>
       </c>
       <c r="I61" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J61">
         <v>1</v>
@@ -3033,9 +3022,9 @@
         <v>2655</v>
       </c>
     </row>
-    <row r="62" spans="1:13">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B62" t="s">
         <v>14</v>
@@ -3047,10 +3036,10 @@
         <v>1800</v>
       </c>
       <c r="E62">
-        <v>300</v>
+        <v>-300</v>
       </c>
       <c r="F62">
-        <v>-150</v>
+        <v>-750</v>
       </c>
       <c r="G62">
         <v>6</v>
@@ -3059,7 +3048,7 @@
         <v>1</v>
       </c>
       <c r="I62" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J62">
         <v>1</v>
@@ -3071,9 +3060,9 @@
         <v>2655</v>
       </c>
     </row>
-    <row r="63" spans="1:13">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="B63" t="s">
         <v>14</v>
@@ -3097,7 +3086,7 @@
         <v>1</v>
       </c>
       <c r="I63" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J63">
         <v>1</v>
@@ -3109,9 +3098,9 @@
         <v>2655</v>
       </c>
     </row>
-    <row r="64" spans="1:13">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B64" t="s">
         <v>14</v>
@@ -3123,7 +3112,7 @@
         <v>720</v>
       </c>
       <c r="E64">
-        <v>600</v>
+        <v>1050</v>
       </c>
       <c r="F64">
         <v>-25</v>
@@ -3135,7 +3124,7 @@
         <v>1</v>
       </c>
       <c r="I64" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J64">
         <v>1</v>
@@ -3147,9 +3136,9 @@
         <v>1932</v>
       </c>
     </row>
-    <row r="65" spans="1:13">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
-        <v>228</v>
+        <v>235</v>
       </c>
       <c r="B65" t="s">
         <v>14</v>
@@ -3158,10 +3147,10 @@
         <v>78</v>
       </c>
       <c r="D65">
-        <v>2310</v>
+        <v>720</v>
       </c>
       <c r="E65">
-        <v>150</v>
+        <v>600</v>
       </c>
       <c r="F65">
         <v>-25</v>
@@ -3173,7 +3162,7 @@
         <v>1</v>
       </c>
       <c r="I65" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J65">
         <v>1</v>
@@ -3185,7 +3174,7 @@
         <v>1932</v>
       </c>
     </row>
-    <row r="66" spans="1:13">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>234</v>
       </c>
@@ -3211,7 +3200,7 @@
         <v>1</v>
       </c>
       <c r="I66" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J66">
         <v>1</v>
@@ -3223,7 +3212,7 @@
         <v>1932</v>
       </c>
     </row>
-    <row r="67" spans="1:13">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>233</v>
       </c>
@@ -3249,7 +3238,7 @@
         <v>1</v>
       </c>
       <c r="I67" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J67">
         <v>1</v>
@@ -3261,7 +3250,7 @@
         <v>1932</v>
       </c>
     </row>
-    <row r="68" spans="1:13">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>232</v>
       </c>
@@ -3287,7 +3276,7 @@
         <v>1</v>
       </c>
       <c r="I68" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J68">
         <v>1</v>
@@ -3299,9 +3288,9 @@
         <v>1932</v>
       </c>
     </row>
-    <row r="69" spans="1:13">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B69" t="s">
         <v>14</v>
@@ -3310,10 +3299,10 @@
         <v>82</v>
       </c>
       <c r="D69">
-        <v>120</v>
+        <v>2310</v>
       </c>
       <c r="E69">
-        <v>1050</v>
+        <v>1200</v>
       </c>
       <c r="F69">
         <v>-25</v>
@@ -3325,7 +3314,7 @@
         <v>1</v>
       </c>
       <c r="I69" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J69">
         <v>1</v>
@@ -3337,9 +3326,9 @@
         <v>1932</v>
       </c>
     </row>
-    <row r="70" spans="1:13">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B70" t="s">
         <v>14</v>
@@ -3351,7 +3340,7 @@
         <v>2310</v>
       </c>
       <c r="E70">
-        <v>1200</v>
+        <v>600</v>
       </c>
       <c r="F70">
         <v>-25</v>
@@ -3363,7 +3352,7 @@
         <v>1</v>
       </c>
       <c r="I70" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J70">
         <v>1</v>
@@ -3375,9 +3364,9 @@
         <v>1932</v>
       </c>
     </row>
-    <row r="71" spans="1:13">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B71" t="s">
         <v>14</v>
@@ -3389,7 +3378,7 @@
         <v>2310</v>
       </c>
       <c r="E71">
-        <v>600</v>
+        <v>150</v>
       </c>
       <c r="F71">
         <v>-25</v>
@@ -3401,7 +3390,7 @@
         <v>1</v>
       </c>
       <c r="I71" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J71">
         <v>1</v>
@@ -3413,9 +3402,9 @@
         <v>1932</v>
       </c>
     </row>
-    <row r="72" spans="1:13">
+    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
-        <v>236</v>
+        <v>227</v>
       </c>
       <c r="B72" t="s">
         <v>14</v>
@@ -3424,10 +3413,10 @@
         <v>85</v>
       </c>
       <c r="D72">
-        <v>720</v>
+        <v>1410</v>
       </c>
       <c r="E72">
-        <v>1050</v>
+        <v>1200</v>
       </c>
       <c r="F72">
         <v>-25</v>
@@ -3439,7 +3428,7 @@
         <v>1</v>
       </c>
       <c r="I72" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J72">
         <v>1</v>
@@ -3451,9 +3440,9 @@
         <v>1932</v>
       </c>
     </row>
-    <row r="73" spans="1:13">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B73" t="s">
         <v>14</v>
@@ -3465,7 +3454,7 @@
         <v>1410</v>
       </c>
       <c r="E73">
-        <v>1200</v>
+        <v>150</v>
       </c>
       <c r="F73">
         <v>-25</v>
@@ -3477,7 +3466,7 @@
         <v>1</v>
       </c>
       <c r="I73" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J73">
         <v>1</v>
@@ -3489,9 +3478,9 @@
         <v>1932</v>
       </c>
     </row>
-    <row r="74" spans="1:13">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="B74" t="s">
         <v>14</v>
@@ -3500,10 +3489,10 @@
         <v>87</v>
       </c>
       <c r="D74">
-        <v>1410</v>
+        <v>120</v>
       </c>
       <c r="E74">
-        <v>150</v>
+        <v>1050</v>
       </c>
       <c r="F74">
         <v>-25</v>
@@ -3515,7 +3504,7 @@
         <v>1</v>
       </c>
       <c r="I74" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J74">
         <v>1</v>
@@ -3527,7 +3516,7 @@
         <v>1932</v>
       </c>
     </row>
-    <row r="75" spans="1:13">
+    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>226</v>
       </c>
@@ -3553,7 +3542,7 @@
         <v>1</v>
       </c>
       <c r="I75" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J75">
         <v>1</v>
@@ -3571,14 +3560,23 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:O9"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="80.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.140625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3622,24 +3620,24 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>146</v>
+        <v>164</v>
       </c>
       <c r="B2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C2" t="s">
         <v>92</v>
       </c>
-      <c r="C2" t="s">
-        <v>93</v>
-      </c>
       <c r="D2">
-        <v>1200</v>
+        <v>1202</v>
       </c>
       <c r="E2">
-        <v>-210</v>
+        <v>160</v>
       </c>
       <c r="F2">
-        <v>-50</v>
+        <v>-181</v>
       </c>
       <c r="G2">
         <v>3</v>
@@ -3648,7 +3646,7 @@
         <v>6</v>
       </c>
       <c r="I2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J2">
         <v>1</v>
@@ -3660,24 +3658,24 @@
         <v>2655</v>
       </c>
     </row>
-    <row r="3" spans="1:15">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>164</v>
+        <v>146</v>
       </c>
       <c r="B3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D3">
-        <v>1202</v>
+        <v>1200</v>
       </c>
       <c r="E3">
-        <v>-160</v>
+        <v>210</v>
       </c>
       <c r="F3">
-        <v>-181</v>
+        <v>-50</v>
       </c>
       <c r="G3">
         <v>3</v>
@@ -3686,7 +3684,7 @@
         <v>6</v>
       </c>
       <c r="I3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J3">
         <v>1</v>
@@ -3698,62 +3696,62 @@
         <v>2655</v>
       </c>
     </row>
-    <row r="4" spans="1:15">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>149</v>
+        <v>158</v>
       </c>
       <c r="B4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D4">
-        <v>960</v>
+        <v>392</v>
       </c>
       <c r="E4">
-        <v>170</v>
+        <v>-575</v>
       </c>
       <c r="F4">
-        <v>-375</v>
+        <v>-1024</v>
       </c>
       <c r="G4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H4">
         <v>6</v>
       </c>
       <c r="I4" t="s">
+        <v>90</v>
+      </c>
+      <c r="J4">
+        <v>1</v>
+      </c>
+      <c r="L4">
+        <v>1940</v>
+      </c>
+      <c r="M4">
+        <v>2655</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>153</v>
+      </c>
+      <c r="B5" t="s">
         <v>91</v>
       </c>
-      <c r="J4">
-        <v>1</v>
-      </c>
-      <c r="L4">
-        <v>592</v>
-      </c>
-      <c r="M4">
-        <v>2655</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
-      <c r="A5" s="1">
-        <v>70</v>
-      </c>
-      <c r="B5" t="s">
-        <v>92</v>
-      </c>
       <c r="C5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D5">
-        <v>637</v>
+        <v>492</v>
       </c>
       <c r="E5">
-        <v>800</v>
+        <v>-450</v>
       </c>
       <c r="F5">
-        <v>-365</v>
+        <v>-175</v>
       </c>
       <c r="G5">
         <v>5</v>
@@ -3762,7 +3760,7 @@
         <v>6</v>
       </c>
       <c r="I5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J5">
         <v>1</v>
@@ -3774,24 +3772,24 @@
         <v>2655</v>
       </c>
     </row>
-    <row r="6" spans="1:15">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D6">
-        <v>600</v>
+        <v>540</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>450</v>
       </c>
       <c r="F6">
-        <v>125</v>
+        <v>-175</v>
       </c>
       <c r="G6">
         <v>5</v>
@@ -3800,7 +3798,7 @@
         <v>6</v>
       </c>
       <c r="I6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J6">
         <v>1</v>
@@ -3812,422 +3810,118 @@
         <v>2655</v>
       </c>
     </row>
-    <row r="7" spans="1:15">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <v>158</v>
+        <v>0</v>
       </c>
       <c r="B7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D7">
-        <v>1285</v>
+        <v>305</v>
       </c>
       <c r="E7">
-        <v>1592</v>
+        <v>450</v>
       </c>
       <c r="F7">
-        <v>-24</v>
-      </c>
-      <c r="G7" t="s">
-        <v>89</v>
+        <v>-453</v>
+      </c>
+      <c r="G7">
+        <v>5</v>
       </c>
       <c r="H7">
         <v>6</v>
       </c>
       <c r="I7" t="s">
+        <v>90</v>
+      </c>
+      <c r="J7">
+        <v>1</v>
+      </c>
+      <c r="L7">
+        <v>1940</v>
+      </c>
+      <c r="M7">
+        <v>2655</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>143</v>
+      </c>
+      <c r="B8" t="s">
         <v>91</v>
       </c>
-      <c r="J7">
-        <v>1</v>
-      </c>
-      <c r="L7">
-        <v>2900</v>
-      </c>
-      <c r="M7">
-        <v>1932</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
-      <c r="A8" s="1">
-        <v>36</v>
-      </c>
-      <c r="B8" t="s">
-        <v>92</v>
-      </c>
       <c r="C8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D8">
-        <v>645</v>
+        <v>600</v>
       </c>
       <c r="E8">
-        <v>1112</v>
+        <v>0</v>
       </c>
       <c r="F8">
-        <v>-77</v>
-      </c>
-      <c r="G8" t="s">
-        <v>89</v>
+        <v>125</v>
+      </c>
+      <c r="G8">
+        <v>5</v>
       </c>
       <c r="H8">
         <v>6</v>
       </c>
       <c r="I8" t="s">
+        <v>90</v>
+      </c>
+      <c r="J8">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>1940</v>
+      </c>
+      <c r="M8">
+        <v>2655</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>144</v>
+      </c>
+      <c r="B9" t="s">
         <v>91</v>
       </c>
-      <c r="J8">
-        <v>1</v>
-      </c>
-      <c r="L8">
-        <v>2900</v>
-      </c>
-      <c r="M8">
-        <v>1932</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
-      <c r="A9" s="1">
-        <v>58</v>
-      </c>
-      <c r="B9" t="s">
-        <v>92</v>
-      </c>
       <c r="C9" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D9">
-        <v>2235</v>
+        <v>380</v>
       </c>
       <c r="E9">
-        <v>1650</v>
+        <v>-800</v>
       </c>
       <c r="F9">
-        <v>100</v>
-      </c>
-      <c r="G9" t="s">
-        <v>89</v>
+        <v>-725</v>
+      </c>
+      <c r="G9">
+        <v>5</v>
       </c>
       <c r="H9">
         <v>6</v>
       </c>
       <c r="I9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J9">
         <v>1</v>
       </c>
       <c r="L9">
-        <v>2900</v>
+        <v>1940</v>
       </c>
       <c r="M9">
-        <v>1932</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
-      <c r="A10" s="1">
-        <v>61</v>
-      </c>
-      <c r="B10" t="s">
-        <v>92</v>
-      </c>
-      <c r="C10" t="s">
-        <v>101</v>
-      </c>
-      <c r="D10">
-        <v>2385</v>
-      </c>
-      <c r="E10">
-        <v>1710</v>
-      </c>
-      <c r="F10">
-        <v>175</v>
-      </c>
-      <c r="G10" t="s">
-        <v>89</v>
-      </c>
-      <c r="H10">
-        <v>6</v>
-      </c>
-      <c r="I10" t="s">
-        <v>91</v>
-      </c>
-      <c r="J10">
-        <v>1</v>
-      </c>
-      <c r="L10">
-        <v>2900</v>
-      </c>
-      <c r="M10">
-        <v>1932</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
-      <c r="A11" s="1">
-        <v>74</v>
-      </c>
-      <c r="B11" t="s">
-        <v>92</v>
-      </c>
-      <c r="C11" t="s">
-        <v>102</v>
-      </c>
-      <c r="D11">
-        <v>1010</v>
-      </c>
-      <c r="E11">
-        <v>1535</v>
-      </c>
-      <c r="F11">
-        <v>-77</v>
-      </c>
-      <c r="G11" t="s">
-        <v>89</v>
-      </c>
-      <c r="H11">
-        <v>6</v>
-      </c>
-      <c r="I11" t="s">
-        <v>91</v>
-      </c>
-      <c r="J11">
-        <v>1</v>
-      </c>
-      <c r="L11">
-        <v>2900</v>
-      </c>
-      <c r="M11">
-        <v>1932</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
-      <c r="A12" s="1">
-        <v>103</v>
-      </c>
-      <c r="B12" t="s">
-        <v>92</v>
-      </c>
-      <c r="C12" t="s">
-        <v>103</v>
-      </c>
-      <c r="D12">
-        <v>2660</v>
-      </c>
-      <c r="E12">
-        <v>435</v>
-      </c>
-      <c r="F12">
-        <v>210</v>
-      </c>
-      <c r="G12" t="s">
-        <v>89</v>
-      </c>
-      <c r="H12">
-        <v>6</v>
-      </c>
-      <c r="I12" t="s">
-        <v>91</v>
-      </c>
-      <c r="J12">
-        <v>1</v>
-      </c>
-      <c r="L12">
-        <v>2900</v>
-      </c>
-      <c r="M12">
-        <v>1932</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
-      <c r="A13" s="1">
-        <v>144</v>
-      </c>
-      <c r="B13" t="s">
-        <v>92</v>
-      </c>
-      <c r="C13" t="s">
-        <v>104</v>
-      </c>
-      <c r="D13">
-        <v>1060</v>
-      </c>
-      <c r="E13">
-        <v>1580</v>
-      </c>
-      <c r="F13">
-        <v>275</v>
-      </c>
-      <c r="G13" t="s">
-        <v>89</v>
-      </c>
-      <c r="H13">
-        <v>6</v>
-      </c>
-      <c r="I13" t="s">
-        <v>91</v>
-      </c>
-      <c r="J13">
-        <v>1</v>
-      </c>
-      <c r="L13">
-        <v>2900</v>
-      </c>
-      <c r="M13">
-        <v>1932</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
-      <c r="A14" s="1">
-        <v>145</v>
-      </c>
-      <c r="B14" t="s">
-        <v>92</v>
-      </c>
-      <c r="C14" t="s">
-        <v>105</v>
-      </c>
-      <c r="D14">
-        <v>2310</v>
-      </c>
-      <c r="E14">
-        <v>1740</v>
-      </c>
-      <c r="F14">
-        <v>825</v>
-      </c>
-      <c r="G14" t="s">
-        <v>89</v>
-      </c>
-      <c r="H14">
-        <v>6</v>
-      </c>
-      <c r="I14" t="s">
-        <v>91</v>
-      </c>
-      <c r="J14">
-        <v>1</v>
-      </c>
-      <c r="L14">
-        <v>2900</v>
-      </c>
-      <c r="M14">
-        <v>1932</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
-      <c r="A15" s="1">
-        <v>148</v>
-      </c>
-      <c r="B15" t="s">
-        <v>92</v>
-      </c>
-      <c r="C15" t="s">
-        <v>106</v>
-      </c>
-      <c r="D15">
-        <v>1320</v>
-      </c>
-      <c r="E15">
-        <v>0</v>
-      </c>
-      <c r="F15">
-        <v>1175</v>
-      </c>
-      <c r="G15" t="s">
-        <v>89</v>
-      </c>
-      <c r="H15">
-        <v>6</v>
-      </c>
-      <c r="I15" t="s">
-        <v>91</v>
-      </c>
-      <c r="J15">
-        <v>1</v>
-      </c>
-      <c r="L15">
-        <v>2900</v>
-      </c>
-      <c r="M15">
-        <v>1932</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
-      <c r="A16" s="1">
-        <v>153</v>
-      </c>
-      <c r="B16" t="s">
-        <v>92</v>
-      </c>
-      <c r="C16" t="s">
-        <v>107</v>
-      </c>
-      <c r="D16">
-        <v>1410</v>
-      </c>
-      <c r="E16">
-        <v>1692</v>
-      </c>
-      <c r="F16">
-        <v>825</v>
-      </c>
-      <c r="G16" t="s">
-        <v>89</v>
-      </c>
-      <c r="H16">
-        <v>6</v>
-      </c>
-      <c r="I16" t="s">
-        <v>91</v>
-      </c>
-      <c r="J16">
-        <v>1</v>
-      </c>
-      <c r="L16">
-        <v>2900</v>
-      </c>
-      <c r="M16">
-        <v>1932</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
-      <c r="A17" s="1">
-        <v>0</v>
-      </c>
-      <c r="B17" t="s">
-        <v>92</v>
-      </c>
-      <c r="C17" t="s">
-        <v>108</v>
-      </c>
-      <c r="D17">
-        <v>2310</v>
-      </c>
-      <c r="E17">
-        <v>1505</v>
-      </c>
-      <c r="F17">
-        <v>547</v>
-      </c>
-      <c r="G17" t="s">
-        <v>89</v>
-      </c>
-      <c r="H17">
-        <v>6</v>
-      </c>
-      <c r="I17" t="s">
-        <v>91</v>
-      </c>
-      <c r="J17">
-        <v>1</v>
-      </c>
-      <c r="L17">
-        <v>2900</v>
-      </c>
-      <c r="M17">
-        <v>1932</v>
+        <v>2655</v>
       </c>
     </row>
   </sheetData>
@@ -4236,14 +3930,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B1:O1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="2:15">
+    <row r="1" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>

--- a/Greyform/Python_Application/exporteddatassss(with TMP)(draft1)(tetra).xlsx
+++ b/Greyform/Python_Application/exporteddatassss(with TMP)(draft1)(tetra).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MokZhiZhuan\OneDrive - WINSYS TECHNOLOGY PTE LTD\Documents\GitHub\GreyForm_UI\Greyform\Python_Application\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F08E57D1-8ABF-4159-896E-C3AED6DFA43D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{502814CA-0323-4BBB-8302-77E70EEFE21D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1950" yWindow="15" windowWidth="23235" windowHeight="15465" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Stage 2" sheetId="1" r:id="rId1"/>
@@ -691,11 +691,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O75"/>
   <sheetViews>
-    <sheetView topLeftCell="A64" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I1" sqref="I1:I1048576"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="27.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
@@ -756,7 +769,7 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>30</v>
+        <v>-30</v>
       </c>
       <c r="F2">
         <v>-175</v>
@@ -794,7 +807,7 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>-470</v>
+        <v>470</v>
       </c>
       <c r="F3">
         <v>1025</v>
@@ -832,7 +845,7 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>-470</v>
+        <v>470</v>
       </c>
       <c r="F4">
         <v>425</v>
@@ -870,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-470</v>
+        <v>470</v>
       </c>
       <c r="F5">
         <v>-175</v>
@@ -908,7 +921,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>-470</v>
+        <v>470</v>
       </c>
       <c r="F6">
         <v>-775</v>
@@ -946,7 +959,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>30</v>
+        <v>-30</v>
       </c>
       <c r="F7">
         <v>1025</v>
@@ -984,7 +997,7 @@
         <v>0</v>
       </c>
       <c r="E8">
-        <v>30</v>
+        <v>-30</v>
       </c>
       <c r="F8">
         <v>425</v>
@@ -1022,7 +1035,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>-490</v>
+        <v>490</v>
       </c>
       <c r="F9">
         <v>425</v>
@@ -1060,7 +1073,7 @@
         <v>0</v>
       </c>
       <c r="E10">
-        <v>30</v>
+        <v>-30</v>
       </c>
       <c r="F10">
         <v>-775</v>
@@ -1098,7 +1111,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>350</v>
+        <v>-350</v>
       </c>
       <c r="F11">
         <v>1025</v>
@@ -1136,7 +1149,7 @@
         <v>0</v>
       </c>
       <c r="E12">
-        <v>350</v>
+        <v>-350</v>
       </c>
       <c r="F12">
         <v>425</v>
@@ -1174,7 +1187,7 @@
         <v>0</v>
       </c>
       <c r="E13">
-        <v>350</v>
+        <v>-350</v>
       </c>
       <c r="F13">
         <v>-175</v>
@@ -1212,7 +1225,7 @@
         <v>0</v>
       </c>
       <c r="E14">
-        <v>350</v>
+        <v>-350</v>
       </c>
       <c r="F14">
         <v>-775</v>
@@ -1250,7 +1263,7 @@
         <v>0</v>
       </c>
       <c r="E15">
-        <v>1350</v>
+        <v>-1350</v>
       </c>
       <c r="F15">
         <v>1025</v>
@@ -1288,7 +1301,7 @@
         <v>0</v>
       </c>
       <c r="E16">
-        <v>1350</v>
+        <v>-1350</v>
       </c>
       <c r="F16">
         <v>425</v>
@@ -1326,7 +1339,7 @@
         <v>0</v>
       </c>
       <c r="E17">
-        <v>1350</v>
+        <v>-1350</v>
       </c>
       <c r="F17">
         <v>-175</v>
@@ -1364,7 +1377,7 @@
         <v>0</v>
       </c>
       <c r="E18">
-        <v>1350</v>
+        <v>-1350</v>
       </c>
       <c r="F18">
         <v>-775</v>
@@ -1402,7 +1415,7 @@
         <v>0</v>
       </c>
       <c r="E19">
-        <v>-490</v>
+        <v>490</v>
       </c>
       <c r="F19">
         <v>1025</v>
@@ -1440,7 +1453,7 @@
         <v>0</v>
       </c>
       <c r="E20">
-        <v>-935</v>
+        <v>935</v>
       </c>
       <c r="F20">
         <v>-775</v>
@@ -1478,7 +1491,7 @@
         <v>0</v>
       </c>
       <c r="E21">
-        <v>-935</v>
+        <v>935</v>
       </c>
       <c r="F21">
         <v>-175</v>
@@ -1516,7 +1529,7 @@
         <v>0</v>
       </c>
       <c r="E22">
-        <v>-935</v>
+        <v>935</v>
       </c>
       <c r="F22">
         <v>425</v>
@@ -1554,7 +1567,7 @@
         <v>0</v>
       </c>
       <c r="E23">
-        <v>-935</v>
+        <v>935</v>
       </c>
       <c r="F23">
         <v>1025</v>
@@ -1592,7 +1605,7 @@
         <v>0</v>
       </c>
       <c r="E24">
-        <v>-490</v>
+        <v>490</v>
       </c>
       <c r="F24">
         <v>1025</v>
@@ -1630,7 +1643,7 @@
         <v>0</v>
       </c>
       <c r="E25">
-        <v>-490</v>
+        <v>490</v>
       </c>
       <c r="F25">
         <v>-175</v>
@@ -2218,7 +2231,7 @@
         <v>1</v>
       </c>
       <c r="L40">
-        <v>592</v>
+        <v>600</v>
       </c>
       <c r="M40">
         <v>2655</v>
@@ -2256,7 +2269,7 @@
         <v>1</v>
       </c>
       <c r="L41">
-        <v>592</v>
+        <v>600</v>
       </c>
       <c r="M41">
         <v>2655</v>
@@ -2294,7 +2307,7 @@
         <v>1</v>
       </c>
       <c r="L42">
-        <v>592</v>
+        <v>600</v>
       </c>
       <c r="M42">
         <v>2655</v>
@@ -2332,7 +2345,7 @@
         <v>1</v>
       </c>
       <c r="L43">
-        <v>592</v>
+        <v>600</v>
       </c>
       <c r="M43">
         <v>2655</v>
@@ -3563,7 +3576,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:O9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -3573,7 +3588,12 @@
     <col min="6" max="6" width="15.140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.85546875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.28515625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
@@ -3631,7 +3651,7 @@
         <v>92</v>
       </c>
       <c r="D2">
-        <v>1202</v>
+        <v>1200</v>
       </c>
       <c r="E2">
         <v>160</v>
@@ -3933,9 +3953,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B1:O1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.28515625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
